--- a/premise/data/additional_inventories/lci-synfuels-from-FT-from-coal-gasification.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-FT-from-coal-gasification.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-27252" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-27255" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="FT fuel - Diesel" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" calcMode="manual" iterate="1" iterateCount="5" iterateDelta="0.01"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -150,21 +150,12 @@
     <t>Gas-to-liquid plant</t>
   </si>
   <si>
-    <t>Carbon dioxide, from soil or biomass stock</t>
-  </si>
-  <si>
     <t>Kerosene, synthetic</t>
   </si>
   <si>
     <t>Adapted from van der Giesen et al. 2014. LHV: 45 MJ/kg, Formula: C13H18, Density: 7551 kg/m3. Economic allocation between 3 other co-products. Allocation key for this co-product: 6%.</t>
   </si>
   <si>
-    <t>Carbon dioxide, to soil or biomass stock</t>
-  </si>
-  <si>
-    <t>soil</t>
-  </si>
-  <si>
     <t>Naphtha, synthetic</t>
   </si>
   <si>
@@ -322,6 +313,15 @@
   </si>
   <si>
     <t>diesel production, synthetic, from Fischer Tropsch process, hydrogen from coal gasification, energy allocation, at fuelling station</t>
+  </si>
+  <si>
+    <t>Carbon dioxide, non-fossil</t>
+  </si>
+  <si>
+    <t>natural resource::in air</t>
+  </si>
+  <si>
+    <t>Carbon dioxide, in air</t>
   </si>
 </sst>
 </file>
@@ -736,37 +736,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K575"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="B226" sqref="B226"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.44140625" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -774,7 +774,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
@@ -782,15 +782,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>3</v>
       </c>
@@ -798,7 +798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
@@ -806,12 +806,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>11</v>
       </c>
@@ -831,13 +831,13 @@
         <v>3</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>9</v>
@@ -846,9 +846,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B11" s="10">
         <v>1</v>
@@ -869,15 +869,15 @@
         <v>100</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B12" s="10">
         <v>1.00057</v>
@@ -897,10 +897,10 @@
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>27</v>
       </c>
@@ -925,15 +925,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B14" s="15">
         <v>1.8499999999999999E-5</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>6</v>
@@ -947,18 +947,18 @@
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B15" s="15">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>20</v>
@@ -972,12 +972,12 @@
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B16" s="15">
         <v>1.04E-10</v>
@@ -997,18 +997,18 @@
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B17" s="15">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>6</v>
@@ -1022,18 +1022,18 @@
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B18" s="15">
         <v>-5.0000000000000002E-5</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>25</v>
@@ -1047,18 +1047,18 @@
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B19" s="15">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>6</v>
@@ -1072,21 +1072,21 @@
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B20" s="10">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10" t="s">
@@ -1097,12 +1097,12 @@
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
       <c r="K20" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B21" s="10">
         <v>3.2599999999999997E-2</v>
@@ -1111,7 +1111,7 @@
         <v>8</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10" t="s">
@@ -1122,18 +1122,18 @@
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
       <c r="K21" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
-        <v>83</v>
       </c>
       <c r="B22" s="15">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>25</v>
@@ -1147,23 +1147,23 @@
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="16"/>
       <c r="G23" s="12"/>
     </row>
-    <row r="24" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>7</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>1</v>
       </c>
@@ -1179,15 +1179,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>3</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>5</v>
       </c>
@@ -1203,12 +1203,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>11</v>
       </c>
@@ -1228,13 +1228,13 @@
         <v>3</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J31" s="9" t="s">
         <v>9</v>
@@ -1243,9 +1243,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B32" s="10">
         <v>1</v>
@@ -1266,15 +1266,15 @@
         <v>100</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B33" s="10">
         <v>1.00057</v>
@@ -1297,7 +1297,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>27</v>
       </c>
@@ -1322,15 +1322,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B35" s="10">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>6</v>
@@ -1344,18 +1344,18 @@
       <c r="I35" s="10"/>
       <c r="J35" s="10"/>
       <c r="K35" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B36" s="15">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>20</v>
@@ -1369,12 +1369,12 @@
       <c r="I36" s="10"/>
       <c r="J36" s="10"/>
       <c r="K36" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B37" s="15">
         <v>2.5999999999999998E-10</v>
@@ -1394,18 +1394,18 @@
       <c r="I37" s="10"/>
       <c r="J37" s="10"/>
       <c r="K37" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B38" s="15">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>6</v>
@@ -1419,18 +1419,18 @@
       <c r="I38" s="10"/>
       <c r="J38" s="10"/>
       <c r="K38" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B39" s="15">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>25</v>
@@ -1444,18 +1444,18 @@
       <c r="I39" s="10"/>
       <c r="J39" s="10"/>
       <c r="K39" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B40" s="15">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>6</v>
@@ -1469,21 +1469,21 @@
       <c r="I40" s="10"/>
       <c r="J40" s="10"/>
       <c r="K40" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B41" s="10">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E41" s="10"/>
       <c r="F41" s="10" t="s">
@@ -1494,12 +1494,12 @@
       <c r="I41" s="10"/>
       <c r="J41" s="10"/>
       <c r="K41" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B42" s="10">
         <v>3.2599999999999997E-2</v>
@@ -1508,7 +1508,7 @@
         <v>8</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E42" s="10"/>
       <c r="F42" s="10" t="s">
@@ -1519,18 +1519,18 @@
       <c r="I42" s="10"/>
       <c r="J42" s="10"/>
       <c r="K42" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="10" t="s">
-        <v>83</v>
       </c>
       <c r="B43" s="15">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D43" s="10" t="s">
         <v>25</v>
@@ -1544,23 +1544,23 @@
       <c r="I43" s="10"/>
       <c r="J43" s="10"/>
       <c r="K43" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
       <c r="B44" s="16"/>
       <c r="G44" s="12"/>
     </row>
-    <row r="45" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>7</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>1</v>
       </c>
@@ -1576,15 +1576,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>3</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>5</v>
       </c>
@@ -1600,12 +1600,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>11</v>
       </c>
@@ -1625,13 +1625,13 @@
         <v>3</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J52" s="9" t="s">
         <v>9</v>
@@ -1640,9 +1640,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B53" s="10">
         <v>1</v>
@@ -1663,15 +1663,15 @@
         <v>100</v>
       </c>
       <c r="J53" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K53" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B54" s="10">
         <v>1.00057</v>
@@ -1691,10 +1691,10 @@
       <c r="I54" s="10"/>
       <c r="J54" s="10"/>
       <c r="K54" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>27</v>
       </c>
@@ -1719,15 +1719,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B56" s="15">
         <v>1.8499999999999999E-5</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D56" s="10" t="s">
         <v>6</v>
@@ -1741,18 +1741,18 @@
       <c r="I56" s="10"/>
       <c r="J56" s="10"/>
       <c r="K56" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B57" s="15">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>20</v>
@@ -1766,12 +1766,12 @@
       <c r="I57" s="10"/>
       <c r="J57" s="10"/>
       <c r="K57" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B58" s="15">
         <v>1.04E-10</v>
@@ -1791,18 +1791,18 @@
       <c r="I58" s="10"/>
       <c r="J58" s="10"/>
       <c r="K58" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B59" s="15">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>6</v>
@@ -1816,18 +1816,18 @@
       <c r="I59" s="10"/>
       <c r="J59" s="10"/>
       <c r="K59" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B60" s="15">
         <v>-5.0000000000000002E-5</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D60" s="14" t="s">
         <v>25</v>
@@ -1841,18 +1841,18 @@
       <c r="I60" s="10"/>
       <c r="J60" s="10"/>
       <c r="K60" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B61" s="15">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D61" s="10" t="s">
         <v>6</v>
@@ -1866,21 +1866,21 @@
       <c r="I61" s="10"/>
       <c r="J61" s="10"/>
       <c r="K61" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B62" s="10">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E62" s="10"/>
       <c r="F62" s="10" t="s">
@@ -1891,12 +1891,12 @@
       <c r="I62" s="10"/>
       <c r="J62" s="10"/>
       <c r="K62" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B63" s="10">
         <v>3.2599999999999997E-2</v>
@@ -1905,7 +1905,7 @@
         <v>8</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E63" s="10"/>
       <c r="F63" s="10" t="s">
@@ -1916,18 +1916,18 @@
       <c r="I63" s="10"/>
       <c r="J63" s="10"/>
       <c r="K63" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="10" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="10" t="s">
-        <v>83</v>
       </c>
       <c r="B64" s="15">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D64" s="10" t="s">
         <v>25</v>
@@ -1941,23 +1941,23 @@
       <c r="I64" s="10"/>
       <c r="J64" s="10"/>
       <c r="K64" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="12"/>
       <c r="B65" s="16"/>
       <c r="G65" s="12"/>
     </row>
-    <row r="66" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
         <v>7</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
         <v>1</v>
       </c>
@@ -1973,15 +1973,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
         <v>3</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
         <v>5</v>
       </c>
@@ -1997,12 +1997,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
         <v>11</v>
       </c>
@@ -2022,13 +2022,13 @@
         <v>3</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H73" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I73" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J73" s="9" t="s">
         <v>9</v>
@@ -2037,9 +2037,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B74" s="10">
         <v>1</v>
@@ -2060,15 +2060,15 @@
         <v>100</v>
       </c>
       <c r="J74" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K74" s="12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B75" s="10">
         <v>1.00057</v>
@@ -2091,7 +2091,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="76" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
         <v>27</v>
       </c>
@@ -2116,15 +2116,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="77" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B77" s="10">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D77" s="10" t="s">
         <v>6</v>
@@ -2138,18 +2138,18 @@
       <c r="I77" s="10"/>
       <c r="J77" s="10"/>
       <c r="K77" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B78" s="15">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D78" s="10" t="s">
         <v>20</v>
@@ -2163,12 +2163,12 @@
       <c r="I78" s="10"/>
       <c r="J78" s="10"/>
       <c r="K78" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B79" s="15">
         <v>2.5999999999999998E-10</v>
@@ -2188,18 +2188,18 @@
       <c r="I79" s="10"/>
       <c r="J79" s="10"/>
       <c r="K79" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B80" s="15">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D80" s="10" t="s">
         <v>6</v>
@@ -2213,18 +2213,18 @@
       <c r="I80" s="10"/>
       <c r="J80" s="10"/>
       <c r="K80" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B81" s="15">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D81" s="14" t="s">
         <v>25</v>
@@ -2238,18 +2238,18 @@
       <c r="I81" s="10"/>
       <c r="J81" s="10"/>
       <c r="K81" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B82" s="15">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D82" s="10" t="s">
         <v>6</v>
@@ -2263,21 +2263,21 @@
       <c r="I82" s="10"/>
       <c r="J82" s="10"/>
       <c r="K82" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B83" s="10">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E83" s="10"/>
       <c r="F83" s="10" t="s">
@@ -2288,12 +2288,12 @@
       <c r="I83" s="10"/>
       <c r="J83" s="10"/>
       <c r="K83" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B84" s="10">
         <v>3.2599999999999997E-2</v>
@@ -2302,7 +2302,7 @@
         <v>8</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E84" s="10"/>
       <c r="F84" s="10" t="s">
@@ -2313,18 +2313,18 @@
       <c r="I84" s="10"/>
       <c r="J84" s="10"/>
       <c r="K84" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="10" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="10" t="s">
-        <v>83</v>
       </c>
       <c r="B85" s="15">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D85" s="10" t="s">
         <v>25</v>
@@ -2338,23 +2338,23 @@
       <c r="I85" s="10"/>
       <c r="J85" s="10"/>
       <c r="K85" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="12"/>
       <c r="B86" s="16"/>
       <c r="G86" s="12"/>
     </row>
-    <row r="87" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
         <v>1</v>
       </c>
@@ -2362,15 +2362,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
         <v>3</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
         <v>5</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
         <v>7</v>
       </c>
@@ -2394,15 +2394,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
         <v>38</v>
       </c>
@@ -2410,12 +2410,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="95" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
         <v>11</v>
       </c>
@@ -2444,9 +2444,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B97" s="9">
         <v>1</v>
@@ -2461,7 +2461,7 @@
         <v>15</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H97" s="9" t="s">
         <v>40</v>
@@ -2470,9 +2470,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="98" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B98" s="9">
         <v>0.73</v>
@@ -2493,7 +2493,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="99" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
         <v>19</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
         <v>24</v>
       </c>
@@ -2533,7 +2533,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="101" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="10" t="s">
         <v>41</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="102" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
         <v>27</v>
       </c>
@@ -2579,9 +2579,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="103" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="B103" s="9">
         <v>2</v>
@@ -2590,7 +2590,7 @@
         <v>6</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="F103" s="9" t="s">
         <v>22</v>
@@ -2599,16 +2599,16 @@
         <v>23</v>
       </c>
     </row>
-    <row r="104" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="105" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="s">
         <v>1</v>
       </c>
@@ -2616,15 +2616,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="s">
         <v>3</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="9" t="s">
         <v>5</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
         <v>7</v>
       </c>
@@ -2648,15 +2648,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
         <v>38</v>
       </c>
@@ -2664,12 +2664,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="113" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
         <v>11</v>
       </c>
@@ -2698,9 +2698,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B115" s="9">
         <v>1</v>
@@ -2715,15 +2715,15 @@
         <v>15</v>
       </c>
       <c r="G115" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H115" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="116" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B116" s="9">
         <v>0.65</v>
@@ -2744,7 +2744,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="117" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="9" t="s">
         <v>19</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="118" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
         <v>24</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="119" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="s">
         <v>41</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="120" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="s">
         <v>27</v>
       </c>
@@ -2830,9 +2830,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="121" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="B121" s="9">
         <v>2.48</v>
@@ -2841,7 +2841,7 @@
         <v>6</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="F121" s="9" t="s">
         <v>22</v>
@@ -2850,16 +2850,16 @@
         <v>23</v>
       </c>
     </row>
-    <row r="122" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="123" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="s">
         <v>1</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="s">
         <v>2</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="126" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="s">
         <v>3</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
         <v>5</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="128" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="s">
         <v>7</v>
       </c>
@@ -2899,15 +2899,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="s">
         <v>38</v>
       </c>
@@ -2915,12 +2915,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="131" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="s">
         <v>11</v>
       </c>
@@ -2949,9 +2949,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B133" s="9">
         <v>1</v>
@@ -2975,9 +2975,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="134" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B134" s="9">
         <v>0.98</v>
@@ -2998,7 +2998,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="135" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="s">
         <v>19</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="136" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="9" t="s">
         <v>24</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="137" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="10" t="s">
         <v>41</v>
       </c>
@@ -3061,7 +3061,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="138" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="9" t="s">
         <v>27</v>
       </c>
@@ -3084,9 +3084,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="139" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="9" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="B139" s="9">
         <v>1.82</v>
@@ -3095,7 +3095,7 @@
         <v>6</v>
       </c>
       <c r="E139" s="9" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="F139" s="9" t="s">
         <v>22</v>
@@ -3104,16 +3104,16 @@
         <v>23</v>
       </c>
     </row>
-    <row r="140" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="141" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="9" t="s">
         <v>1</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="9" t="s">
         <v>2</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="144" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="9" t="s">
         <v>3</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="9" t="s">
         <v>5</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="9" t="s">
         <v>7</v>
       </c>
@@ -3153,15 +3153,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="9" t="s">
         <v>38</v>
       </c>
@@ -3169,12 +3169,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="149" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="9" t="s">
         <v>11</v>
       </c>
@@ -3203,9 +3203,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B151" s="9">
         <v>1</v>
@@ -3229,9 +3229,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="152" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B152" s="9">
         <v>2.1</v>
@@ -3252,7 +3252,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="153" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="9" t="s">
         <v>19</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="154" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="9" t="s">
         <v>24</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="155" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="10" t="s">
         <v>41</v>
       </c>
@@ -3315,7 +3315,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="156" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="9" t="s">
         <v>27</v>
       </c>
@@ -3338,9 +3338,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="157" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="9" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="B157" s="9">
         <v>0.13</v>
@@ -3358,18 +3358,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="158" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B158" s="11"/>
     </row>
-    <row r="159" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="9" t="s">
         <v>1</v>
       </c>
@@ -3377,15 +3377,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="9" t="s">
         <v>3</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="9" t="s">
         <v>5</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="9" t="s">
         <v>7</v>
       </c>
@@ -3409,15 +3409,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="9" t="s">
         <v>38</v>
       </c>
@@ -3425,12 +3425,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="167" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="9" t="s">
         <v>11</v>
       </c>
@@ -3459,9 +3459,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="169" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B169" s="9">
         <v>1</v>
@@ -3476,7 +3476,7 @@
         <v>15</v>
       </c>
       <c r="G169" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H169" s="9" t="s">
         <v>40</v>
@@ -3485,9 +3485,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="170" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B170" s="9">
         <v>2.35</v>
@@ -3508,7 +3508,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="171" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="9" t="s">
         <v>19</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="172" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="9" t="s">
         <v>24</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="173" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="10" t="s">
         <v>41</v>
       </c>
@@ -3571,7 +3571,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="174" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="9" t="s">
         <v>27</v>
       </c>
@@ -3594,9 +3594,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="175" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="9" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="B175" s="9">
         <v>0.22</v>
@@ -3614,16 +3614,16 @@
         <v>23</v>
       </c>
     </row>
-    <row r="176" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="177" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="177" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="9" t="s">
         <v>1</v>
       </c>
@@ -3631,15 +3631,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="9" t="s">
         <v>3</v>
       </c>
@@ -3647,7 +3647,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="9" t="s">
         <v>5</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="182" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="9" t="s">
         <v>7</v>
       </c>
@@ -3663,15 +3663,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="183" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="9" t="s">
         <v>38</v>
       </c>
@@ -3679,12 +3679,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="185" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A185" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="9" t="s">
         <v>11</v>
       </c>
@@ -3713,9 +3713,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="187" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B187" s="9">
         <v>1</v>
@@ -3730,15 +3730,15 @@
         <v>15</v>
       </c>
       <c r="G187" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H187" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="188" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B188" s="9">
         <v>2.3199999999999998</v>
@@ -3759,7 +3759,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="189" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="9" t="s">
         <v>19</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="190" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="9" t="s">
         <v>24</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="191" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="10" t="s">
         <v>41</v>
       </c>
@@ -3822,7 +3822,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="192" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="9" t="s">
         <v>27</v>
       </c>
@@ -3845,9 +3845,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="193" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="9" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="B193" s="9">
         <v>0.19</v>
@@ -3856,7 +3856,7 @@
         <v>6</v>
       </c>
       <c r="E193" s="9" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="F193" s="9" t="s">
         <v>22</v>
@@ -3865,16 +3865,16 @@
         <v>23</v>
       </c>
     </row>
-    <row r="194" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="195" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="195" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A195" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="9" t="s">
         <v>1</v>
       </c>
@@ -3882,7 +3882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="9" t="s">
         <v>2</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="198" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="9" t="s">
         <v>3</v>
       </c>
@@ -3898,7 +3898,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="9" t="s">
         <v>5</v>
       </c>
@@ -3906,7 +3906,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="200" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="9" t="s">
         <v>7</v>
       </c>
@@ -3914,15 +3914,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="201" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="9" t="s">
         <v>38</v>
       </c>
@@ -3930,12 +3930,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="203" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A203" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="204" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="9" t="s">
         <v>11</v>
       </c>
@@ -3964,9 +3964,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="205" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B205" s="9">
         <v>1</v>
@@ -3990,9 +3990,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="206" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B206" s="9">
         <v>2.2599999999999998</v>
@@ -4013,7 +4013,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="207" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="9" t="s">
         <v>19</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="208" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="9" t="s">
         <v>24</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="209" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="10" t="s">
         <v>41</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="210" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="9" t="s">
         <v>27</v>
       </c>
@@ -4099,9 +4099,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="211" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="9" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="B211" s="9">
         <v>0.06</v>
@@ -4110,7 +4110,7 @@
         <v>6</v>
       </c>
       <c r="E211" s="9" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="F211" s="9" t="s">
         <v>22</v>
@@ -4119,16 +4119,16 @@
         <v>23</v>
       </c>
     </row>
-    <row r="212" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="213" spans="1:8" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="213" spans="1:8" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A213" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B213" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="9" t="s">
         <v>1</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="9" t="s">
         <v>2</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="216" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="9" t="s">
         <v>3</v>
       </c>
@@ -4152,7 +4152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="9" t="s">
         <v>5</v>
       </c>
@@ -4160,7 +4160,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="218" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="9" t="s">
         <v>7</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="219" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="9" t="s">
         <v>9</v>
       </c>
@@ -4176,7 +4176,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="220" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="9" t="s">
         <v>38</v>
       </c>
@@ -4184,12 +4184,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="221" spans="1:8" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="222" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="9" t="s">
         <v>11</v>
       </c>
@@ -4212,9 +4212,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B223" s="9">
         <v>0.875</v>
@@ -4232,9 +4232,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="224" spans="1:8" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A224" s="12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B224" s="9">
         <v>0.125</v>
@@ -4249,10 +4249,10 @@
         <v>18</v>
       </c>
       <c r="G224" s="12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" s="9" t="s">
         <v>27</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="226" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="9" t="s">
         <v>24</v>
       </c>
@@ -4290,9 +4290,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="227" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B227" s="9">
         <v>1</v>
@@ -4310,7 +4310,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="228" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="9" t="s">
         <v>32</v>
       </c>
@@ -4327,18 +4327,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="229" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B229" s="13"/>
     </row>
-    <row r="230" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A230" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B230" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="9" t="s">
         <v>1</v>
       </c>
@@ -4346,7 +4346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="9" t="s">
         <v>2</v>
       </c>
@@ -4354,7 +4354,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="233" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233" s="9" t="s">
         <v>3</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="9" t="s">
         <v>5</v>
       </c>
@@ -4370,7 +4370,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="235" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" s="9" t="s">
         <v>7</v>
       </c>
@@ -4378,7 +4378,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="236" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="9" t="s">
         <v>9</v>
       </c>
@@ -4386,12 +4386,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="237" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A237" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="238" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" s="9" t="s">
         <v>11</v>
       </c>
@@ -4414,9 +4414,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B239" s="9">
         <v>1</v>
@@ -4434,9 +4434,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="240" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A240" s="12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B240" s="9">
         <v>7.0000000000000007E-2</v>
@@ -4451,10 +4451,10 @@
         <v>18</v>
       </c>
       <c r="G240" s="12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A241" s="12" t="s">
         <v>31</v>
       </c>
@@ -4471,12 +4471,12 @@
         <v>18</v>
       </c>
       <c r="G241" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B242" s="11">
         <v>1.9300000000000002E-9</v>
@@ -4491,380 +4491,380 @@
         <v>18</v>
       </c>
       <c r="G242" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243" s="10"/>
       <c r="B243" s="11"/>
       <c r="G243" s="10"/>
     </row>
-    <row r="245" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B251" s="3"/>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B252" s="3"/>
     </row>
-    <row r="254" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
       <c r="B254" s="2"/>
     </row>
-    <row r="261" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A261" s="1"/>
     </row>
-    <row r="264" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A264" s="4"/>
       <c r="G264" s="4"/>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B268" s="5"/>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B269" s="5"/>
     </row>
-    <row r="270" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A270" s="1"/>
       <c r="B270" s="2"/>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B272" s="6"/>
     </row>
-    <row r="277" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A277" s="1"/>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="6"/>
       <c r="G279" s="6"/>
     </row>
-    <row r="280" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A280" s="4"/>
       <c r="G280" s="4"/>
     </row>
-    <row r="281" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A281" s="4"/>
       <c r="G281" s="4"/>
     </row>
-    <row r="284" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A284" s="1"/>
       <c r="B284" s="2"/>
     </row>
-    <row r="291" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A291" s="1"/>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B297" s="3"/>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B298" s="3"/>
     </row>
-    <row r="300" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A300" s="1"/>
       <c r="B300" s="2"/>
     </row>
-    <row r="307" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A307" s="1"/>
     </row>
-    <row r="310" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A310" s="4"/>
       <c r="G310" s="4"/>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B314" s="5"/>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B315" s="5"/>
     </row>
-    <row r="316" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A316" s="1"/>
       <c r="B316" s="2"/>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B318" s="6"/>
     </row>
-    <row r="323" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A323" s="1"/>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="6"/>
       <c r="G325" s="6"/>
     </row>
-    <row r="326" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A326" s="4"/>
       <c r="G326" s="4"/>
     </row>
-    <row r="327" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A327" s="4"/>
       <c r="G327" s="4"/>
     </row>
-    <row r="330" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A330" s="1"/>
       <c r="B330" s="2"/>
     </row>
-    <row r="337" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A337" s="1"/>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B343" s="3"/>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B344" s="3"/>
     </row>
-    <row r="346" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A346" s="1"/>
       <c r="B346" s="2"/>
     </row>
-    <row r="353" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A353" s="1"/>
     </row>
-    <row r="356" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A356" s="4"/>
       <c r="G356" s="4"/>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B360" s="5"/>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B361" s="5"/>
     </row>
-    <row r="362" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A362" s="1"/>
       <c r="B362" s="2"/>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B364" s="6"/>
     </row>
-    <row r="369" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A369" s="1"/>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="6"/>
       <c r="G371" s="6"/>
     </row>
-    <row r="372" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A372" s="4"/>
       <c r="G372" s="4"/>
     </row>
-    <row r="373" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A373" s="4"/>
       <c r="G373" s="4"/>
     </row>
-    <row r="376" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A376" s="1"/>
       <c r="B376" s="2"/>
     </row>
-    <row r="383" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A383" s="1"/>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B389" s="3"/>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B390" s="3"/>
     </row>
-    <row r="392" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A392" s="1"/>
       <c r="B392" s="2"/>
     </row>
-    <row r="399" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A399" s="1"/>
     </row>
-    <row r="402" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A402" s="4"/>
       <c r="G402" s="4"/>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B406" s="5"/>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B407" s="5"/>
     </row>
-    <row r="408" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A408" s="1"/>
       <c r="B408" s="2"/>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B410" s="6"/>
     </row>
-    <row r="415" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A415" s="1"/>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" s="6"/>
       <c r="G417" s="6"/>
     </row>
-    <row r="418" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A418" s="4"/>
       <c r="G418" s="4"/>
     </row>
-    <row r="419" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A419" s="4"/>
       <c r="G419" s="4"/>
     </row>
-    <row r="422" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A422" s="1"/>
       <c r="B422" s="2"/>
     </row>
-    <row r="429" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A429" s="1"/>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B435" s="3"/>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B436" s="3"/>
     </row>
-    <row r="438" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A438" s="1"/>
       <c r="B438" s="2"/>
     </row>
-    <row r="445" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A445" s="1"/>
     </row>
-    <row r="448" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A448" s="4"/>
       <c r="G448" s="4"/>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B452" s="5"/>
     </row>
-    <row r="454" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A454" s="1"/>
       <c r="B454" s="2"/>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B456" s="6"/>
     </row>
-    <row r="461" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A461" s="1"/>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" s="6"/>
       <c r="G463" s="6"/>
     </row>
-    <row r="464" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A464" s="4"/>
       <c r="G464" s="4"/>
     </row>
-    <row r="465" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A465" s="4"/>
       <c r="G465" s="4"/>
     </row>
-    <row r="467" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A467" s="1"/>
       <c r="B467" s="2"/>
     </row>
-    <row r="474" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A474" s="1"/>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B480" s="3"/>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B481" s="3"/>
     </row>
-    <row r="483" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A483" s="1"/>
       <c r="B483" s="2"/>
     </row>
-    <row r="490" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A490" s="1"/>
     </row>
-    <row r="493" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A493" s="4"/>
       <c r="G493" s="4"/>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B497" s="5"/>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B498" s="5"/>
     </row>
-    <row r="499" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A499" s="1"/>
       <c r="B499" s="2"/>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B501" s="6"/>
     </row>
-    <row r="506" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A506" s="1"/>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508" s="6"/>
       <c r="G508" s="6"/>
     </row>
-    <row r="509" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A509" s="4"/>
       <c r="G509" s="4"/>
     </row>
-    <row r="510" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A510" s="4"/>
       <c r="G510" s="4"/>
     </row>
-    <row r="513" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A513" s="1"/>
       <c r="B513" s="2"/>
     </row>
-    <row r="520" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A520" s="1"/>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B526" s="3"/>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B527" s="3"/>
     </row>
-    <row r="529" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A529" s="1"/>
       <c r="B529" s="2"/>
     </row>
-    <row r="536" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A536" s="1"/>
     </row>
-    <row r="539" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A539" s="4"/>
       <c r="G539" s="4"/>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B543" s="5"/>
     </row>
-    <row r="545" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A545" s="1"/>
       <c r="B545" s="2"/>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B547" s="6"/>
     </row>
-    <row r="552" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A552" s="1"/>
     </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A554" s="6"/>
       <c r="G554" s="6"/>
     </row>
-    <row r="555" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A555" s="4"/>
       <c r="G555" s="4"/>
     </row>
-    <row r="556" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A556" s="4"/>
       <c r="G556" s="4"/>
     </row>
-    <row r="558" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A558" s="1"/>
       <c r="B558" s="2"/>
     </row>
-    <row r="564" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A564" s="1"/>
     </row>
-    <row r="569" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A569" s="1"/>
       <c r="B569" s="2"/>
     </row>
-    <row r="575" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A575" s="1"/>
     </row>
   </sheetData>

--- a/premise/data/additional_inventories/lci-synfuels-from-FT-from-coal-gasification.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-FT-from-coal-gasification.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-27255" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-27252" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="FT fuel - Diesel" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="101">
   <si>
     <t>Activity</t>
   </si>
@@ -734,20 +734,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K575"/>
+  <dimension ref="A1:K574"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="B226" sqref="B226"/>
+    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="B218" sqref="B218"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.44140625" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -755,10 +755,10 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -766,7 +766,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -774,7 +774,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
@@ -782,7 +782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>2</v>
       </c>
@@ -790,7 +790,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>3</v>
       </c>
@@ -798,7 +798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
@@ -806,12 +806,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>11</v>
       </c>
@@ -846,7 +846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>94</v>
       </c>
@@ -875,7 +875,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>83</v>
       </c>
@@ -900,7 +900,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>27</v>
       </c>
@@ -925,7 +925,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>61</v>
       </c>
@@ -950,7 +950,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>63</v>
       </c>
@@ -975,7 +975,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>65</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>67</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>69</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>71</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>73</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>76</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>80</v>
       </c>
@@ -1150,12 +1150,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="12"/>
       <c r="B23" s="16"/>
       <c r="G23" s="12"/>
     </row>
-    <row r="24" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>0</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>7</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>1</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>2</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>3</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>5</v>
       </c>
@@ -1203,12 +1203,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>11</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>95</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>84</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>27</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>61</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>63</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>65</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>67</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
         <v>69</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
         <v>71</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>73</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>76</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>80</v>
       </c>
@@ -1547,12 +1547,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="12"/>
       <c r="B44" s="16"/>
       <c r="G44" s="12"/>
     </row>
-    <row r="45" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>0</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>7</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>1</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>2</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>3</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>5</v>
       </c>
@@ -1600,12 +1600,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>11</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
         <v>96</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
         <v>85</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>27</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
         <v>61</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="57" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
         <v>63</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
         <v>65</v>
       </c>
@@ -1794,7 +1794,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
         <v>67</v>
       </c>
@@ -1819,7 +1819,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
         <v>69</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
         <v>71</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
         <v>73</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="63" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
         <v>76</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="64" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
         <v>80</v>
       </c>
@@ -1944,12 +1944,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="65" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="12"/>
       <c r="B65" s="16"/>
       <c r="G65" s="12"/>
     </row>
-    <row r="66" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
         <v>0</v>
       </c>
@@ -1957,7 +1957,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
         <v>7</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
         <v>1</v>
       </c>
@@ -1973,7 +1973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
         <v>2</v>
       </c>
@@ -1981,7 +1981,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="70" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
         <v>3</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
         <v>5</v>
       </c>
@@ -1997,12 +1997,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
         <v>11</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
         <v>97</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="10" t="s">
         <v>86</v>
       </c>
@@ -2091,7 +2091,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="76" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
         <v>27</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="77" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="10" t="s">
         <v>61</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="78" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="10" t="s">
         <v>63</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="79" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="10" t="s">
         <v>65</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="80" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="10" t="s">
         <v>67</v>
       </c>
@@ -2216,7 +2216,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="81" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="10" t="s">
         <v>69</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="82" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="10" t="s">
         <v>71</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="83" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="10" t="s">
         <v>73</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="84" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="10" t="s">
         <v>76</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="85" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="10" t="s">
         <v>80</v>
       </c>
@@ -2341,12 +2341,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="86" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="12"/>
       <c r="B86" s="16"/>
       <c r="G86" s="12"/>
     </row>
-    <row r="87" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
         <v>0</v>
       </c>
@@ -2354,7 +2354,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="88" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="9" t="s">
         <v>1</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="9" t="s">
         <v>2</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="90" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="9" t="s">
         <v>3</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="9" t="s">
         <v>5</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="9" t="s">
         <v>7</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="9" t="s">
         <v>9</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="94" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="9" t="s">
         <v>38</v>
       </c>
@@ -2410,12 +2410,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="95" spans="1:11" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="9" t="s">
         <v>11</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="10" t="s">
         <v>83</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="98" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="9" t="s">
         <v>93</v>
       </c>
@@ -2493,7 +2493,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="99" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="9" t="s">
         <v>19</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="9" t="s">
         <v>24</v>
       </c>
@@ -2533,7 +2533,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="101" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="10" t="s">
         <v>41</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="102" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="9" t="s">
         <v>27</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="103" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="9" t="s">
         <v>100</v>
       </c>
@@ -2599,8 +2599,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="104" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="105" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
         <v>0</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="106" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
         <v>1</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="9" t="s">
         <v>2</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="108" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="9" t="s">
         <v>3</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="9" t="s">
         <v>5</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="9" t="s">
         <v>7</v>
       </c>
@@ -2648,7 +2648,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="9" t="s">
         <v>9</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="112" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="9" t="s">
         <v>38</v>
       </c>
@@ -2664,12 +2664,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="113" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="9" t="s">
         <v>11</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="10" t="s">
         <v>87</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="116" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="9" t="s">
         <v>93</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="117" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="9" t="s">
         <v>19</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="118" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="9" t="s">
         <v>24</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="119" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="10" t="s">
         <v>41</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="120" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="9" t="s">
         <v>27</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="121" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="9" t="s">
         <v>100</v>
       </c>
@@ -2850,8 +2850,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="122" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="123" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="7" t="s">
         <v>0</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="124" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="9" t="s">
         <v>1</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="9" t="s">
         <v>2</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="126" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="9" t="s">
         <v>3</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="9" t="s">
         <v>5</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="128" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="9" t="s">
         <v>7</v>
       </c>
@@ -2899,7 +2899,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="9" t="s">
         <v>9</v>
       </c>
@@ -2907,7 +2907,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="130" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="9" t="s">
         <v>38</v>
       </c>
@@ -2915,12 +2915,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="131" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="9" t="s">
         <v>11</v>
       </c>
@@ -2949,7 +2949,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="10" t="s">
         <v>84</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="134" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="9" t="s">
         <v>93</v>
       </c>
@@ -2998,7 +2998,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="135" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="9" t="s">
         <v>19</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="136" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="9" t="s">
         <v>24</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="137" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="10" t="s">
         <v>41</v>
       </c>
@@ -3061,7 +3061,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="138" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="9" t="s">
         <v>27</v>
       </c>
@@ -3084,7 +3084,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="139" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="9" t="s">
         <v>100</v>
       </c>
@@ -3104,8 +3104,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="140" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="141" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" s="7" t="s">
         <v>0</v>
       </c>
@@ -3113,7 +3113,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="142" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="9" t="s">
         <v>1</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="9" t="s">
         <v>2</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="144" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A144" s="9" t="s">
         <v>3</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="9" t="s">
         <v>5</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="9" t="s">
         <v>7</v>
       </c>
@@ -3153,7 +3153,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="9" t="s">
         <v>9</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="148" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="9" t="s">
         <v>38</v>
       </c>
@@ -3169,12 +3169,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="149" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="9" t="s">
         <v>11</v>
       </c>
@@ -3203,7 +3203,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="10" t="s">
         <v>88</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="152" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="9" t="s">
         <v>93</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="153" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" s="9" t="s">
         <v>19</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="154" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="9" t="s">
         <v>24</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="155" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="10" t="s">
         <v>41</v>
       </c>
@@ -3315,7 +3315,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="156" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="9" t="s">
         <v>27</v>
       </c>
@@ -3338,7 +3338,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="157" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="9" t="s">
         <v>98</v>
       </c>
@@ -3358,10 +3358,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="158" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B158" s="11"/>
     </row>
-    <row r="159" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" s="7" t="s">
         <v>0</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="160" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="9" t="s">
         <v>1</v>
       </c>
@@ -3377,7 +3377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="9" t="s">
         <v>2</v>
       </c>
@@ -3385,7 +3385,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="162" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A162" s="9" t="s">
         <v>3</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A163" s="9" t="s">
         <v>5</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A164" s="9" t="s">
         <v>7</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A165" s="9" t="s">
         <v>9</v>
       </c>
@@ -3417,7 +3417,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="166" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" s="9" t="s">
         <v>38</v>
       </c>
@@ -3425,12 +3425,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="167" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A167" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168" s="9" t="s">
         <v>11</v>
       </c>
@@ -3459,7 +3459,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="169" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="10" t="s">
         <v>85</v>
       </c>
@@ -3485,7 +3485,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="170" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="9" t="s">
         <v>93</v>
       </c>
@@ -3508,7 +3508,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="171" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A171" s="9" t="s">
         <v>19</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="172" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A172" s="9" t="s">
         <v>24</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="173" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A173" s="10" t="s">
         <v>41</v>
       </c>
@@ -3571,7 +3571,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="174" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A174" s="9" t="s">
         <v>27</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="175" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A175" s="9" t="s">
         <v>98</v>
       </c>
@@ -3614,8 +3614,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="176" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="177" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="177" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A177" s="7" t="s">
         <v>0</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="178" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A178" s="9" t="s">
         <v>1</v>
       </c>
@@ -3631,7 +3631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A179" s="9" t="s">
         <v>2</v>
       </c>
@@ -3639,7 +3639,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="180" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A180" s="9" t="s">
         <v>3</v>
       </c>
@@ -3647,7 +3647,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A181" s="9" t="s">
         <v>5</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="182" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A182" s="9" t="s">
         <v>7</v>
       </c>
@@ -3663,7 +3663,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="183" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A183" s="9" t="s">
         <v>9</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="184" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A184" s="9" t="s">
         <v>38</v>
       </c>
@@ -3679,12 +3679,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="185" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A185" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A186" s="9" t="s">
         <v>11</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="187" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A187" s="10" t="s">
         <v>89</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="188" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A188" s="9" t="s">
         <v>93</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="189" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A189" s="9" t="s">
         <v>19</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="190" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="9" t="s">
         <v>24</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="191" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A191" s="10" t="s">
         <v>41</v>
       </c>
@@ -3822,7 +3822,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="192" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A192" s="9" t="s">
         <v>27</v>
       </c>
@@ -3845,7 +3845,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="193" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A193" s="9" t="s">
         <v>100</v>
       </c>
@@ -3865,8 +3865,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="194" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="195" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="195" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A195" s="7" t="s">
         <v>0</v>
       </c>
@@ -3874,7 +3874,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="196" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A196" s="9" t="s">
         <v>1</v>
       </c>
@@ -3882,7 +3882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A197" s="9" t="s">
         <v>2</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="198" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A198" s="9" t="s">
         <v>3</v>
       </c>
@@ -3898,7 +3898,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A199" s="9" t="s">
         <v>5</v>
       </c>
@@ -3906,7 +3906,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="200" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A200" s="9" t="s">
         <v>7</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="201" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" s="9" t="s">
         <v>9</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="202" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="9" t="s">
         <v>38</v>
       </c>
@@ -3930,12 +3930,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="203" spans="1:9" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A203" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="204" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A204" s="9" t="s">
         <v>11</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="205" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A205" s="10" t="s">
         <v>86</v>
       </c>
@@ -3990,7 +3990,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="206" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A206" s="9" t="s">
         <v>93</v>
       </c>
@@ -4013,7 +4013,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="207" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A207" s="9" t="s">
         <v>19</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="208" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A208" s="9" t="s">
         <v>24</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="209" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A209" s="10" t="s">
         <v>41</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="210" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A210" s="9" t="s">
         <v>27</v>
       </c>
@@ -4099,7 +4099,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="211" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A211" s="9" t="s">
         <v>100</v>
       </c>
@@ -4119,8 +4119,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="212" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="213" spans="1:8" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="213" spans="1:8" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A213" s="7" t="s">
         <v>0</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="214" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A214" s="9" t="s">
         <v>1</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A215" s="9" t="s">
         <v>2</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="216" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A216" s="9" t="s">
         <v>3</v>
       </c>
@@ -4152,7 +4152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A217" s="9" t="s">
         <v>5</v>
       </c>
@@ -4160,7 +4160,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="218" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A218" s="9" t="s">
         <v>7</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="219" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A219" s="9" t="s">
         <v>9</v>
       </c>
@@ -4176,7 +4176,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="220" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A220" s="9" t="s">
         <v>38</v>
       </c>
@@ -4184,12 +4184,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="221" spans="1:8" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A221" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="222" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A222" s="9" t="s">
         <v>11</v>
       </c>
@@ -4212,7 +4212,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A223" s="9" t="s">
         <v>92</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="224" spans="1:8" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A224" s="12" t="s">
         <v>90</v>
       </c>
@@ -4252,620 +4252,600 @@
         <v>91</v>
       </c>
     </row>
-    <row r="225" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A225" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B225" s="9">
-        <v>0.36599999999999999</v>
-      </c>
-      <c r="C225" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D225" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F225" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G225" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B226" s="9">
         <f>60*0.001/106.6</f>
         <v>5.6285178236397749E-4</v>
       </c>
+      <c r="D225" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E225" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F225" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A226" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B226" s="9">
+        <v>1</v>
+      </c>
+      <c r="C226" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="D226" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E226" s="9" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F226" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="G226" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A227" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B227" s="9">
+        <v>32</v>
+      </c>
+      <c r="B227" s="13">
+        <v>5.7100000000000004E-6</v>
+      </c>
+      <c r="C227" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D227" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F227" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B228" s="13"/>
+    </row>
+    <row r="229" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A229" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B229" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C227" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D227" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F227" s="9" t="s">
+      <c r="B230" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A231" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B231" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A232" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B232" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A233" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B233" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A234" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B234" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A235" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B235" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A236" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A237" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B237" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C237" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D237" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E237" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F237" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G237" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B238" s="9">
+        <v>1</v>
+      </c>
+      <c r="C238" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D238" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F238" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G227" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B228" s="13">
-        <v>5.7100000000000004E-6</v>
-      </c>
-      <c r="C228" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D228" s="9" t="s">
+      <c r="G238" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A239" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B239" s="9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C239" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D239" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F239" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G239" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A240" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B240" s="9">
+        <v>1.57</v>
+      </c>
+      <c r="C240" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D240" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F240" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G240" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B241" s="11">
+        <v>1.9300000000000002E-9</v>
+      </c>
+      <c r="C241" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D241" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F228" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B229" s="13"/>
-    </row>
-    <row r="230" spans="1:7" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A230" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B230" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B231" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B232" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B233" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B234" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B235" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B236" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A237" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B238" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C238" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D238" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E238" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F238" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G238" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B239" s="9">
-        <v>1</v>
-      </c>
-      <c r="C239" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D239" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F239" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G239" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A240" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B240" s="9">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C240" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D240" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F240" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G240" s="12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A241" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B241" s="9">
-        <v>1.57</v>
-      </c>
-      <c r="C241" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D241" s="9" t="s">
-        <v>6</v>
-      </c>
       <c r="F241" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G241" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B242" s="11">
-        <v>1.9300000000000002E-9</v>
-      </c>
-      <c r="C242" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D242" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F242" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G242" s="10" t="s">
+      <c r="G241" s="10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="243" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="10"/>
-      <c r="B243" s="11"/>
-      <c r="G243" s="10"/>
-    </row>
-    <row r="245" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A245" s="1"/>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="10"/>
+      <c r="B242" s="11"/>
+      <c r="G242" s="10"/>
+    </row>
+    <row r="244" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A244" s="1"/>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B250" s="3"/>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B251" s="3"/>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B252" s="3"/>
-    </row>
-    <row r="254" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A254" s="1"/>
-      <c r="B254" s="2"/>
-    </row>
-    <row r="261" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A261" s="1"/>
-    </row>
-    <row r="264" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A264" s="4"/>
-      <c r="G264" s="4"/>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A253" s="1"/>
+      <c r="B253" s="2"/>
+    </row>
+    <row r="260" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A260" s="1"/>
+    </row>
+    <row r="263" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A263" s="4"/>
+      <c r="G263" s="4"/>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B267" s="5"/>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B268" s="5"/>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B269" s="5"/>
-    </row>
-    <row r="270" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A270" s="1"/>
-      <c r="B270" s="2"/>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B272" s="6"/>
-    </row>
-    <row r="277" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A277" s="1"/>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A279" s="6"/>
-      <c r="G279" s="6"/>
-    </row>
-    <row r="280" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A269" s="1"/>
+      <c r="B269" s="2"/>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B271" s="6"/>
+    </row>
+    <row r="276" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A276" s="1"/>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A278" s="6"/>
+      <c r="G278" s="6"/>
+    </row>
+    <row r="279" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A279" s="4"/>
+      <c r="G279" s="4"/>
+    </row>
+    <row r="280" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A280" s="4"/>
       <c r="G280" s="4"/>
     </row>
-    <row r="281" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A281" s="4"/>
-      <c r="G281" s="4"/>
-    </row>
-    <row r="284" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A284" s="1"/>
-      <c r="B284" s="2"/>
-    </row>
-    <row r="291" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A291" s="1"/>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A283" s="1"/>
+      <c r="B283" s="2"/>
+    </row>
+    <row r="290" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A290" s="1"/>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B296" s="3"/>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B297" s="3"/>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B298" s="3"/>
-    </row>
-    <row r="300" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A300" s="1"/>
-      <c r="B300" s="2"/>
-    </row>
-    <row r="307" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A307" s="1"/>
-    </row>
-    <row r="310" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A310" s="4"/>
-      <c r="G310" s="4"/>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A299" s="1"/>
+      <c r="B299" s="2"/>
+    </row>
+    <row r="306" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A306" s="1"/>
+    </row>
+    <row r="309" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A309" s="4"/>
+      <c r="G309" s="4"/>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B313" s="5"/>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B314" s="5"/>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B315" s="5"/>
-    </row>
-    <row r="316" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A316" s="1"/>
-      <c r="B316" s="2"/>
-    </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B318" s="6"/>
-    </row>
-    <row r="323" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A323" s="1"/>
-    </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A325" s="6"/>
-      <c r="G325" s="6"/>
-    </row>
-    <row r="326" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A315" s="1"/>
+      <c r="B315" s="2"/>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B317" s="6"/>
+    </row>
+    <row r="322" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A322" s="1"/>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A324" s="6"/>
+      <c r="G324" s="6"/>
+    </row>
+    <row r="325" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A325" s="4"/>
+      <c r="G325" s="4"/>
+    </row>
+    <row r="326" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A326" s="4"/>
       <c r="G326" s="4"/>
     </row>
-    <row r="327" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A327" s="4"/>
-      <c r="G327" s="4"/>
-    </row>
-    <row r="330" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A330" s="1"/>
-      <c r="B330" s="2"/>
-    </row>
-    <row r="337" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A337" s="1"/>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A329" s="1"/>
+      <c r="B329" s="2"/>
+    </row>
+    <row r="336" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A336" s="1"/>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B342" s="3"/>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B343" s="3"/>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B344" s="3"/>
-    </row>
-    <row r="346" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A346" s="1"/>
-      <c r="B346" s="2"/>
-    </row>
-    <row r="353" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A353" s="1"/>
-    </row>
-    <row r="356" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A356" s="4"/>
-      <c r="G356" s="4"/>
-    </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A345" s="1"/>
+      <c r="B345" s="2"/>
+    </row>
+    <row r="352" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A352" s="1"/>
+    </row>
+    <row r="355" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A355" s="4"/>
+      <c r="G355" s="4"/>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B359" s="5"/>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B360" s="5"/>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B361" s="5"/>
-    </row>
-    <row r="362" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A362" s="1"/>
-      <c r="B362" s="2"/>
-    </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B364" s="6"/>
-    </row>
-    <row r="369" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A369" s="1"/>
-    </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A371" s="6"/>
-      <c r="G371" s="6"/>
-    </row>
-    <row r="372" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A361" s="1"/>
+      <c r="B361" s="2"/>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B363" s="6"/>
+    </row>
+    <row r="368" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A368" s="1"/>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A370" s="6"/>
+      <c r="G370" s="6"/>
+    </row>
+    <row r="371" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A371" s="4"/>
+      <c r="G371" s="4"/>
+    </row>
+    <row r="372" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A372" s="4"/>
       <c r="G372" s="4"/>
     </row>
-    <row r="373" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A373" s="4"/>
-      <c r="G373" s="4"/>
-    </row>
-    <row r="376" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A376" s="1"/>
-      <c r="B376" s="2"/>
-    </row>
-    <row r="383" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A383" s="1"/>
-    </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A375" s="1"/>
+      <c r="B375" s="2"/>
+    </row>
+    <row r="382" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A382" s="1"/>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B388" s="3"/>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B389" s="3"/>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B390" s="3"/>
-    </row>
-    <row r="392" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A392" s="1"/>
-      <c r="B392" s="2"/>
-    </row>
-    <row r="399" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A399" s="1"/>
-    </row>
-    <row r="402" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A402" s="4"/>
-      <c r="G402" s="4"/>
-    </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A391" s="1"/>
+      <c r="B391" s="2"/>
+    </row>
+    <row r="398" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A398" s="1"/>
+    </row>
+    <row r="401" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A401" s="4"/>
+      <c r="G401" s="4"/>
+    </row>
+    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B405" s="5"/>
+    </row>
+    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B406" s="5"/>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B407" s="5"/>
-    </row>
-    <row r="408" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A408" s="1"/>
-      <c r="B408" s="2"/>
-    </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B410" s="6"/>
-    </row>
-    <row r="415" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A415" s="1"/>
-    </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A417" s="6"/>
-      <c r="G417" s="6"/>
-    </row>
-    <row r="418" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A407" s="1"/>
+      <c r="B407" s="2"/>
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B409" s="6"/>
+    </row>
+    <row r="414" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A414" s="1"/>
+    </row>
+    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A416" s="6"/>
+      <c r="G416" s="6"/>
+    </row>
+    <row r="417" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A417" s="4"/>
+      <c r="G417" s="4"/>
+    </row>
+    <row r="418" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A418" s="4"/>
       <c r="G418" s="4"/>
     </row>
-    <row r="419" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A419" s="4"/>
-      <c r="G419" s="4"/>
-    </row>
-    <row r="422" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A422" s="1"/>
-      <c r="B422" s="2"/>
-    </row>
-    <row r="429" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A429" s="1"/>
-    </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A421" s="1"/>
+      <c r="B421" s="2"/>
+    </row>
+    <row r="428" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A428" s="1"/>
+    </row>
+    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B434" s="3"/>
+    </row>
+    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B435" s="3"/>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B436" s="3"/>
-    </row>
-    <row r="438" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A438" s="1"/>
-      <c r="B438" s="2"/>
-    </row>
-    <row r="445" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A445" s="1"/>
-    </row>
-    <row r="448" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A448" s="4"/>
-      <c r="G448" s="4"/>
-    </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B452" s="5"/>
-    </row>
-    <row r="454" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A454" s="1"/>
-      <c r="B454" s="2"/>
-    </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B456" s="6"/>
-    </row>
-    <row r="461" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A461" s="1"/>
-    </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A463" s="6"/>
-      <c r="G463" s="6"/>
-    </row>
-    <row r="464" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A437" s="1"/>
+      <c r="B437" s="2"/>
+    </row>
+    <row r="444" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A444" s="1"/>
+    </row>
+    <row r="447" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A447" s="4"/>
+      <c r="G447" s="4"/>
+    </row>
+    <row r="451" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B451" s="5"/>
+    </row>
+    <row r="453" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A453" s="1"/>
+      <c r="B453" s="2"/>
+    </row>
+    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B455" s="6"/>
+    </row>
+    <row r="460" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A460" s="1"/>
+    </row>
+    <row r="462" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A462" s="6"/>
+      <c r="G462" s="6"/>
+    </row>
+    <row r="463" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A463" s="4"/>
+      <c r="G463" s="4"/>
+    </row>
+    <row r="464" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A464" s="4"/>
       <c r="G464" s="4"/>
     </row>
-    <row r="465" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A465" s="4"/>
-      <c r="G465" s="4"/>
-    </row>
-    <row r="467" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A467" s="1"/>
-      <c r="B467" s="2"/>
-    </row>
-    <row r="474" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A474" s="1"/>
-    </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A466" s="1"/>
+      <c r="B466" s="2"/>
+    </row>
+    <row r="473" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A473" s="1"/>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B479" s="3"/>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B480" s="3"/>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B481" s="3"/>
-    </row>
-    <row r="483" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A483" s="1"/>
-      <c r="B483" s="2"/>
-    </row>
-    <row r="490" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A490" s="1"/>
-    </row>
-    <row r="493" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A493" s="4"/>
-      <c r="G493" s="4"/>
-    </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A482" s="1"/>
+      <c r="B482" s="2"/>
+    </row>
+    <row r="489" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A489" s="1"/>
+    </row>
+    <row r="492" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A492" s="4"/>
+      <c r="G492" s="4"/>
+    </row>
+    <row r="496" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B496" s="5"/>
+    </row>
+    <row r="497" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B497" s="5"/>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B498" s="5"/>
-    </row>
-    <row r="499" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A499" s="1"/>
-      <c r="B499" s="2"/>
-    </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B501" s="6"/>
-    </row>
-    <row r="506" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A506" s="1"/>
-    </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A508" s="6"/>
-      <c r="G508" s="6"/>
-    </row>
-    <row r="509" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A498" s="1"/>
+      <c r="B498" s="2"/>
+    </row>
+    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B500" s="6"/>
+    </row>
+    <row r="505" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A505" s="1"/>
+    </row>
+    <row r="507" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A507" s="6"/>
+      <c r="G507" s="6"/>
+    </row>
+    <row r="508" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A508" s="4"/>
+      <c r="G508" s="4"/>
+    </row>
+    <row r="509" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A509" s="4"/>
       <c r="G509" s="4"/>
     </row>
-    <row r="510" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A510" s="4"/>
-      <c r="G510" s="4"/>
-    </row>
-    <row r="513" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A513" s="1"/>
-      <c r="B513" s="2"/>
-    </row>
-    <row r="520" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A520" s="1"/>
-    </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A512" s="1"/>
+      <c r="B512" s="2"/>
+    </row>
+    <row r="519" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A519" s="1"/>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B525" s="3"/>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B526" s="3"/>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B527" s="3"/>
-    </row>
-    <row r="529" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A529" s="1"/>
-      <c r="B529" s="2"/>
-    </row>
-    <row r="536" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A536" s="1"/>
-    </row>
-    <row r="539" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A539" s="4"/>
-      <c r="G539" s="4"/>
-    </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B543" s="5"/>
-    </row>
-    <row r="545" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A545" s="1"/>
-      <c r="B545" s="2"/>
-    </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B547" s="6"/>
-    </row>
-    <row r="552" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A552" s="1"/>
-    </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A554" s="6"/>
-      <c r="G554" s="6"/>
-    </row>
-    <row r="555" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A528" s="1"/>
+      <c r="B528" s="2"/>
+    </row>
+    <row r="535" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A535" s="1"/>
+    </row>
+    <row r="538" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A538" s="4"/>
+      <c r="G538" s="4"/>
+    </row>
+    <row r="542" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B542" s="5"/>
+    </row>
+    <row r="544" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A544" s="1"/>
+      <c r="B544" s="2"/>
+    </row>
+    <row r="546" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B546" s="6"/>
+    </row>
+    <row r="551" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A551" s="1"/>
+    </row>
+    <row r="553" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A553" s="6"/>
+      <c r="G553" s="6"/>
+    </row>
+    <row r="554" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A554" s="4"/>
+      <c r="G554" s="4"/>
+    </row>
+    <row r="555" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A555" s="4"/>
       <c r="G555" s="4"/>
     </row>
-    <row r="556" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A556" s="4"/>
-      <c r="G556" s="4"/>
-    </row>
-    <row r="558" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A558" s="1"/>
-      <c r="B558" s="2"/>
-    </row>
-    <row r="564" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A564" s="1"/>
-    </row>
-    <row r="569" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A569" s="1"/>
-      <c r="B569" s="2"/>
-    </row>
-    <row r="575" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A575" s="1"/>
+    <row r="557" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A557" s="1"/>
+      <c r="B557" s="2"/>
+    </row>
+    <row r="563" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A563" s="1"/>
+    </row>
+    <row r="568" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A568" s="1"/>
+      <c r="B568" s="2"/>
+    </row>
+    <row r="574" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A574" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/premise/data/additional_inventories/lci-synfuels-from-FT-from-coal-gasification.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-FT-from-coal-gasification.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="98">
   <si>
     <t>Activity</t>
   </si>
@@ -114,9 +114,6 @@
     <t>ecoinvent</t>
   </si>
   <si>
-    <t>carbon dioxide, captured from atmosphere</t>
-  </si>
-  <si>
     <t>RWGS tank construction</t>
   </si>
   <si>
@@ -177,9 +174,6 @@
     <t>Adapted from van der Giesen et al. 2014. LHV: 43.3 MJ/kg, Formula: C13H18, Density: 7551 kg/m3. Energy-based allocation between 3 other co-products. Allocation key for this co-product: 37%. Post corrected to preserve carbon balance.</t>
   </si>
   <si>
-    <t>carbon dioxide, captured from the atmosphere</t>
-  </si>
-  <si>
     <t>Fixed bed reactor for RWGS</t>
   </si>
   <si>
@@ -315,13 +309,12 @@
     <t>diesel production, synthetic, from Fischer Tropsch process, hydrogen from coal gasification, energy allocation, at fuelling station</t>
   </si>
   <si>
-    <t>Carbon dioxide, non-fossil</t>
-  </si>
-  <si>
-    <t>natural resource::in air</t>
-  </si>
-  <si>
-    <t>Carbon dioxide, in air</t>
+    <t>Carbon dioxide, fossil</t>
+  </si>
+  <si>
+    <t>Adapted from van der Giesen et al. 2014. Density of syngas: 0.470kg/m3 @1 bar. LHV: 23.9 MJ/kg.
+Here, the CO2 needed (1.57 kg CO2) comes from a redirected amount from the coal gasification process (which produces 18.024 kg CO2 per kg H2).
+Hence, that is 1.57 kg that are not emitted, so a correction is applied here.</t>
   </si>
 </sst>
 </file>
@@ -402,7 +395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -420,6 +413,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -734,15 +728,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K574"/>
+  <dimension ref="A1:K567"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="B218" sqref="B218"/>
+    <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
+      <selection activeCell="F235" sqref="F235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="83.77734375" customWidth="1"/>
     <col min="2" max="2" width="32.44140625" customWidth="1"/>
     <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -752,7 +746,7 @@
         <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -763,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -787,7 +781,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -831,13 +825,13 @@
         <v>3</v>
       </c>
       <c r="G10" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>59</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>9</v>
@@ -848,7 +842,7 @@
     </row>
     <row r="11" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B11" s="10">
         <v>1</v>
@@ -869,15 +863,15 @@
         <v>100</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B12" s="10">
         <v>1.00057</v>
@@ -897,7 +891,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -927,13 +921,13 @@
     </row>
     <row r="14" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B14" s="15">
         <v>1.8499999999999999E-5</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>6</v>
@@ -947,18 +941,18 @@
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B15" s="15">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>20</v>
@@ -972,12 +966,12 @@
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B16" s="15">
         <v>1.04E-10</v>
@@ -997,18 +991,18 @@
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B17" s="15">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>6</v>
@@ -1022,18 +1016,18 @@
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B18" s="15">
         <v>-5.0000000000000002E-5</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>25</v>
@@ -1047,18 +1041,18 @@
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B19" s="15">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>6</v>
@@ -1072,21 +1066,21 @@
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B20" s="10">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10" t="s">
@@ -1097,12 +1091,12 @@
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
       <c r="K20" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B21" s="10">
         <v>3.2599999999999997E-2</v>
@@ -1111,7 +1105,7 @@
         <v>8</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10" t="s">
@@ -1122,18 +1116,18 @@
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
       <c r="K21" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B22" s="15">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>25</v>
@@ -1147,7 +1141,7 @@
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -1160,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -1184,7 +1178,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -1228,13 +1222,13 @@
         <v>3</v>
       </c>
       <c r="G31" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I31" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>59</v>
       </c>
       <c r="J31" s="9" t="s">
         <v>9</v>
@@ -1245,7 +1239,7 @@
     </row>
     <row r="32" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B32" s="10">
         <v>1</v>
@@ -1266,15 +1260,15 @@
         <v>100</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B33" s="10">
         <v>1.00057</v>
@@ -1294,7 +1288,7 @@
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
       <c r="K33" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -1324,13 +1318,13 @@
     </row>
     <row r="35" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B35" s="10">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>6</v>
@@ -1344,18 +1338,18 @@
       <c r="I35" s="10"/>
       <c r="J35" s="10"/>
       <c r="K35" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B36" s="15">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>20</v>
@@ -1369,12 +1363,12 @@
       <c r="I36" s="10"/>
       <c r="J36" s="10"/>
       <c r="K36" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B37" s="15">
         <v>2.5999999999999998E-10</v>
@@ -1394,18 +1388,18 @@
       <c r="I37" s="10"/>
       <c r="J37" s="10"/>
       <c r="K37" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B38" s="15">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>6</v>
@@ -1419,18 +1413,18 @@
       <c r="I38" s="10"/>
       <c r="J38" s="10"/>
       <c r="K38" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B39" s="15">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>25</v>
@@ -1444,18 +1438,18 @@
       <c r="I39" s="10"/>
       <c r="J39" s="10"/>
       <c r="K39" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B40" s="15">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>6</v>
@@ -1469,21 +1463,21 @@
       <c r="I40" s="10"/>
       <c r="J40" s="10"/>
       <c r="K40" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B41" s="10">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E41" s="10"/>
       <c r="F41" s="10" t="s">
@@ -1494,12 +1488,12 @@
       <c r="I41" s="10"/>
       <c r="J41" s="10"/>
       <c r="K41" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B42" s="10">
         <v>3.2599999999999997E-2</v>
@@ -1508,7 +1502,7 @@
         <v>8</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E42" s="10"/>
       <c r="F42" s="10" t="s">
@@ -1519,18 +1513,18 @@
       <c r="I42" s="10"/>
       <c r="J42" s="10"/>
       <c r="K42" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B43" s="15">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D43" s="10" t="s">
         <v>25</v>
@@ -1544,7 +1538,7 @@
       <c r="I43" s="10"/>
       <c r="J43" s="10"/>
       <c r="K43" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -1557,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -1581,7 +1575,7 @@
         <v>2</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -1625,13 +1619,13 @@
         <v>3</v>
       </c>
       <c r="G52" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I52" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="H52" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="I52" s="9" t="s">
-        <v>59</v>
       </c>
       <c r="J52" s="9" t="s">
         <v>9</v>
@@ -1642,7 +1636,7 @@
     </row>
     <row r="53" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B53" s="10">
         <v>1</v>
@@ -1663,15 +1657,15 @@
         <v>100</v>
       </c>
       <c r="J53" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K53" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B54" s="10">
         <v>1.00057</v>
@@ -1691,7 +1685,7 @@
       <c r="I54" s="10"/>
       <c r="J54" s="10"/>
       <c r="K54" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -1721,13 +1715,13 @@
     </row>
     <row r="56" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B56" s="15">
         <v>1.8499999999999999E-5</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D56" s="10" t="s">
         <v>6</v>
@@ -1741,18 +1735,18 @@
       <c r="I56" s="10"/>
       <c r="J56" s="10"/>
       <c r="K56" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B57" s="15">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>20</v>
@@ -1766,12 +1760,12 @@
       <c r="I57" s="10"/>
       <c r="J57" s="10"/>
       <c r="K57" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B58" s="15">
         <v>1.04E-10</v>
@@ -1791,18 +1785,18 @@
       <c r="I58" s="10"/>
       <c r="J58" s="10"/>
       <c r="K58" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B59" s="15">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>6</v>
@@ -1816,18 +1810,18 @@
       <c r="I59" s="10"/>
       <c r="J59" s="10"/>
       <c r="K59" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B60" s="15">
         <v>-5.0000000000000002E-5</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D60" s="14" t="s">
         <v>25</v>
@@ -1841,18 +1835,18 @@
       <c r="I60" s="10"/>
       <c r="J60" s="10"/>
       <c r="K60" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B61" s="15">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D61" s="10" t="s">
         <v>6</v>
@@ -1866,21 +1860,21 @@
       <c r="I61" s="10"/>
       <c r="J61" s="10"/>
       <c r="K61" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B62" s="10">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E62" s="10"/>
       <c r="F62" s="10" t="s">
@@ -1891,12 +1885,12 @@
       <c r="I62" s="10"/>
       <c r="J62" s="10"/>
       <c r="K62" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B63" s="10">
         <v>3.2599999999999997E-2</v>
@@ -1905,7 +1899,7 @@
         <v>8</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E63" s="10"/>
       <c r="F63" s="10" t="s">
@@ -1916,18 +1910,18 @@
       <c r="I63" s="10"/>
       <c r="J63" s="10"/>
       <c r="K63" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B64" s="15">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D64" s="10" t="s">
         <v>25</v>
@@ -1941,7 +1935,7 @@
       <c r="I64" s="10"/>
       <c r="J64" s="10"/>
       <c r="K64" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -1954,7 +1948,7 @@
         <v>0</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="67" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -1978,7 +1972,7 @@
         <v>2</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="70" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2022,13 +2016,13 @@
         <v>3</v>
       </c>
       <c r="G73" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H73" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I73" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="H73" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="I73" s="9" t="s">
-        <v>59</v>
       </c>
       <c r="J73" s="9" t="s">
         <v>9</v>
@@ -2039,7 +2033,7 @@
     </row>
     <row r="74" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B74" s="10">
         <v>1</v>
@@ -2060,15 +2054,15 @@
         <v>100</v>
       </c>
       <c r="J74" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K74" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="75" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B75" s="10">
         <v>1.00057</v>
@@ -2088,7 +2082,7 @@
       <c r="I75" s="10"/>
       <c r="J75" s="10"/>
       <c r="K75" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="76" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2118,13 +2112,13 @@
     </row>
     <row r="77" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B77" s="10">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D77" s="10" t="s">
         <v>6</v>
@@ -2138,18 +2132,18 @@
       <c r="I77" s="10"/>
       <c r="J77" s="10"/>
       <c r="K77" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B78" s="15">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D78" s="10" t="s">
         <v>20</v>
@@ -2163,12 +2157,12 @@
       <c r="I78" s="10"/>
       <c r="J78" s="10"/>
       <c r="K78" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="79" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B79" s="15">
         <v>2.5999999999999998E-10</v>
@@ -2188,18 +2182,18 @@
       <c r="I79" s="10"/>
       <c r="J79" s="10"/>
       <c r="K79" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="80" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B80" s="15">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D80" s="10" t="s">
         <v>6</v>
@@ -2213,18 +2207,18 @@
       <c r="I80" s="10"/>
       <c r="J80" s="10"/>
       <c r="K80" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="81" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B81" s="15">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D81" s="14" t="s">
         <v>25</v>
@@ -2238,18 +2232,18 @@
       <c r="I81" s="10"/>
       <c r="J81" s="10"/>
       <c r="K81" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="82" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B82" s="15">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D82" s="10" t="s">
         <v>6</v>
@@ -2263,21 +2257,21 @@
       <c r="I82" s="10"/>
       <c r="J82" s="10"/>
       <c r="K82" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="83" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B83" s="10">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E83" s="10"/>
       <c r="F83" s="10" t="s">
@@ -2288,12 +2282,12 @@
       <c r="I83" s="10"/>
       <c r="J83" s="10"/>
       <c r="K83" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="84" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B84" s="10">
         <v>3.2599999999999997E-2</v>
@@ -2302,7 +2296,7 @@
         <v>8</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E84" s="10"/>
       <c r="F84" s="10" t="s">
@@ -2313,18 +2307,18 @@
       <c r="I84" s="10"/>
       <c r="J84" s="10"/>
       <c r="K84" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="85" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B85" s="15">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D85" s="10" t="s">
         <v>25</v>
@@ -2338,7 +2332,7 @@
       <c r="I85" s="10"/>
       <c r="J85" s="10"/>
       <c r="K85" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="86" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -2351,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="88" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2367,7 +2361,7 @@
         <v>2</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="90" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2399,15 +2393,15 @@
         <v>9</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="94" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B94" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="95" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -2446,7 +2440,7 @@
     </row>
     <row r="97" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B97" s="9">
         <v>1</v>
@@ -2461,10 +2455,10 @@
         <v>15</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H97" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I97" s="9" t="s">
         <v>16</v>
@@ -2472,7 +2466,7 @@
     </row>
     <row r="98" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B98" s="9">
         <v>0.73</v>
@@ -2490,7 +2484,7 @@
         <v>17</v>
       </c>
       <c r="H98" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="99" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2535,13 +2529,13 @@
     </row>
     <row r="101" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B101" s="11">
         <v>6.7000000000000001E-12</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D101" s="9" t="s">
         <v>5</v>
@@ -2550,10 +2544,10 @@
         <v>18</v>
       </c>
       <c r="G101" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H101" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="102" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -2579,131 +2573,134 @@
         <v>30</v>
       </c>
     </row>
-    <row r="103" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B103" s="9">
-        <v>2</v>
-      </c>
-      <c r="D103" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E103" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="F103" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H103" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="105" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A105" s="7" t="s">
+    <row r="103" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="104" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A104" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B105" s="8" t="s">
-        <v>87</v>
+      <c r="B104" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B105" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B106" s="9">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="107" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="9" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
     </row>
     <row r="108" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="9" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="109" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="110" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="111" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A112" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E113" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F113" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G113" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H113" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I113" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B111" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B112" s="9" t="s">
+    </row>
+    <row r="114" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B114" s="9">
+        <v>1</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F114" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G114" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H114" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="113" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A113" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B114" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C114" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D114" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E114" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F114" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G114" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H114" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I114" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
     <row r="115" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="10" t="s">
-        <v>87</v>
+      <c r="A115" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="B115" s="9">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="C115" s="9" t="s">
         <v>8</v>
@@ -2712,50 +2709,47 @@
         <v>6</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G115" s="9" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="H115" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="116" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="9" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="B116" s="9">
-        <v>0.65</v>
-      </c>
-      <c r="C116" s="9" t="s">
-        <v>8</v>
+        <v>3.6416023188405786</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>6</v>
+        <v>20</v>
+      </c>
+      <c r="E116" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G116" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H116" s="9" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="117" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B117" s="9">
-        <v>3.6416023188405786</v>
+        <v>1.0754991304347825E-3</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F117" s="9" t="s">
         <v>22</v>
@@ -2765,2087 +2759,1964 @@
       </c>
     </row>
     <row r="118" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B118" s="9">
-        <v>1.0754991304347825E-3</v>
+      <c r="A118" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B118" s="11">
+        <v>6.7000000000000001E-12</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E118" s="9" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="G118" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="H118" s="9" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="119" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="10" t="s">
-        <v>41</v>
+      <c r="A119" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="B119" s="11">
-        <v>6.7000000000000001E-12</v>
+        <v>8.7242061855670114E-2</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="F119" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G119" s="10" t="s">
-        <v>42</v>
+      <c r="G119" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="H119" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B120" s="11">
-        <v>8.7242061855670114E-2</v>
-      </c>
-      <c r="C120" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D120" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F120" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G120" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H120" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="121" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B121" s="9">
-        <v>2.48</v>
-      </c>
-      <c r="D121" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E121" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="F121" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H121" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="123" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A123" s="7" t="s">
+    <row r="120" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="121" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A121" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B123" s="8" t="s">
-        <v>84</v>
+      <c r="B121" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B122" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="124" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B124" s="9">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="125" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="9" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="126" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="9" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="127" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="9" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
     </row>
     <row r="128" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="9" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B129" s="9" t="s">
-        <v>47</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A129" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="130" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="9" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B130" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C130" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D130" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E130" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F130" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G130" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H130" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I130" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B131" s="9">
+        <v>1</v>
+      </c>
+      <c r="C131" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D131" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F131" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G131" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H131" s="9" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A131" s="7" t="s">
-        <v>10</v>
+      <c r="I131" s="9" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="132" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B132" s="9" t="s">
-        <v>12</v>
+        <v>91</v>
+      </c>
+      <c r="B132" s="9">
+        <v>0.98</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E132" s="9" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F132" s="9" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G132" s="9" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="H132" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I132" s="9" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="133" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="10" t="s">
-        <v>84</v>
+      <c r="A133" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="B133" s="9">
-        <v>1</v>
-      </c>
-      <c r="C133" s="9" t="s">
-        <v>8</v>
+        <v>3.6416023188405786</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>6</v>
+        <v>20</v>
+      </c>
+      <c r="E133" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="F133" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G133" s="9" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="H133" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="I133" s="9" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="134" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="9" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="B134" s="9">
-        <v>0.98</v>
-      </c>
-      <c r="C134" s="9" t="s">
-        <v>8</v>
+        <v>1.0754991304347825E-3</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>6</v>
+        <v>25</v>
+      </c>
+      <c r="E134" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="F134" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G134" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H134" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="10" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B135" s="9">
-        <v>3.6416023188405786</v>
+      <c r="B135" s="11">
+        <v>6.7000000000000001E-12</v>
+      </c>
+      <c r="C135" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E135" s="9" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="F135" s="9" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="G135" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="H135" s="9" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="136" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B136" s="9">
-        <v>1.0754991304347825E-3</v>
+        <v>27</v>
+      </c>
+      <c r="B136" s="11">
+        <v>8.7242061855670114E-2</v>
+      </c>
+      <c r="C136" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E136" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F136" s="9" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="G136" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="H136" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B137" s="11">
-        <v>6.7000000000000001E-12</v>
-      </c>
-      <c r="C137" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D137" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F137" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G137" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H137" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B138" s="11">
-        <v>8.7242061855670114E-2</v>
-      </c>
-      <c r="C138" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D138" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F138" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G138" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H138" s="9" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="138" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A138" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="139" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="9" t="s">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="B139" s="9">
-        <v>1.82</v>
-      </c>
-      <c r="D139" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E139" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="F139" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H139" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="141" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A141" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B141" s="8" t="s">
-        <v>88</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="142" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B142" s="9">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="143" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="9" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
     </row>
     <row r="144" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A144" s="9" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
     </row>
     <row r="145" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="9" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B146" s="9" t="s">
-        <v>8</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A146" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="147" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C147" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D147" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E147" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F147" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G147" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H147" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I147" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B147" s="9" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="148" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B148" s="9" t="s">
+      <c r="A148" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B148" s="9">
+        <v>1</v>
+      </c>
+      <c r="C148" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D148" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F148" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G148" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H148" s="9" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A149" s="7" t="s">
-        <v>10</v>
+      <c r="I148" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B149" s="9">
+        <v>2.1</v>
+      </c>
+      <c r="C149" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D149" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F149" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G149" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H149" s="9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="150" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B150" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C150" s="9" t="s">
-        <v>7</v>
+        <v>19</v>
+      </c>
+      <c r="B150" s="9">
+        <v>3.6416023188405786</v>
       </c>
       <c r="D150" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E150" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F150" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H150" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B151" s="9">
+        <v>1.0754991304347825E-3</v>
+      </c>
+      <c r="D151" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E151" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F151" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H151" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B152" s="11">
+        <v>6.7000000000000001E-12</v>
+      </c>
+      <c r="C152" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D152" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E150" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F150" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G150" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H150" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I150" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B151" s="9">
-        <v>1</v>
-      </c>
-      <c r="C151" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D151" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F151" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G151" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H151" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="I151" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B152" s="9">
-        <v>2.1</v>
-      </c>
-      <c r="C152" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D152" s="9" t="s">
-        <v>6</v>
-      </c>
       <c r="F152" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G152" s="9" t="s">
-        <v>17</v>
+      <c r="G152" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="H152" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="153" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B153" s="9">
-        <v>3.6416023188405786</v>
+        <v>27</v>
+      </c>
+      <c r="B153" s="11">
+        <v>8.7242061855670114E-2</v>
+      </c>
+      <c r="C153" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="D153" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E153" s="9" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F153" s="9" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="G153" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="H153" s="9" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="154" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B154" s="9">
-        <v>1.0754991304347825E-3</v>
-      </c>
-      <c r="D154" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E154" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F154" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H154" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B155" s="11">
-        <v>6.7000000000000001E-12</v>
-      </c>
-      <c r="C155" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D155" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F155" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G155" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H155" s="9" t="s">
-        <v>40</v>
+      <c r="B154" s="11"/>
+    </row>
+    <row r="155" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A155" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="156" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B156" s="11">
-        <v>8.7242061855670114E-2</v>
-      </c>
-      <c r="C156" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D156" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F156" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G156" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H156" s="9" t="s">
-        <v>30</v>
+        <v>1</v>
+      </c>
+      <c r="B156" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B157" s="9">
-        <v>0.13</v>
-      </c>
-      <c r="D157" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E157" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F157" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H157" s="9" t="s">
-        <v>23</v>
+        <v>2</v>
+      </c>
+      <c r="B157" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="158" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="11"/>
-    </row>
-    <row r="159" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A159" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B159" s="8" t="s">
-        <v>85</v>
+      <c r="A158" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B158" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B159" s="9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="160" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B160" s="9">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="B160" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="161" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="9" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="162" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A162" s="9" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B163" s="9" t="s">
-        <v>6</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A163" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="164" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A164" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B164" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C164" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B164" s="9" t="s">
-        <v>8</v>
+      <c r="D164" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E164" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F164" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G164" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H164" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I164" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="165" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B165" s="9" t="s">
-        <v>49</v>
+      <c r="A165" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B165" s="9">
+        <v>1</v>
+      </c>
+      <c r="C165" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D165" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F165" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G165" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H165" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I165" s="9" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="166" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B166" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B166" s="9">
+        <v>2.35</v>
+      </c>
+      <c r="C166" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D166" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F166" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G166" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H166" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="167" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A167" s="7" t="s">
-        <v>10</v>
+    <row r="167" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B167" s="9">
+        <v>3.6416023188405786</v>
+      </c>
+      <c r="D167" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E167" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F167" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H167" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="168" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B168" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C168" s="9" t="s">
-        <v>7</v>
+        <v>24</v>
+      </c>
+      <c r="B168" s="9">
+        <v>1.0754991304347825E-3</v>
       </c>
       <c r="D168" s="9" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E168" s="9" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F168" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G168" s="9" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="H168" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I168" s="9" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="169" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B169" s="9">
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="B169" s="11">
+        <v>6.7000000000000001E-12</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D169" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F169" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G169" s="9" t="s">
-        <v>43</v>
+        <v>18</v>
+      </c>
+      <c r="G169" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="H169" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="I169" s="9" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="170" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B170" s="9">
-        <v>2.35</v>
+        <v>27</v>
+      </c>
+      <c r="B170" s="11">
+        <v>8.7242061855670114E-2</v>
       </c>
       <c r="C170" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D170" s="9" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="F170" s="9" t="s">
         <v>18</v>
       </c>
       <c r="G170" s="9" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="H170" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B171" s="9">
-        <v>3.6416023188405786</v>
-      </c>
-      <c r="D171" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E171" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F171" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H171" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B172" s="9">
-        <v>1.0754991304347825E-3</v>
-      </c>
-      <c r="D172" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E172" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F172" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H172" s="9" t="s">
-        <v>23</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="172" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A172" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B172" s="8" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="173" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B173" s="11">
-        <v>6.7000000000000001E-12</v>
-      </c>
-      <c r="C173" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D173" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F173" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G173" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H173" s="9" t="s">
-        <v>40</v>
+      <c r="A173" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B173" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A174" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B174" s="11">
-        <v>8.7242061855670114E-2</v>
-      </c>
-      <c r="C174" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D174" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F174" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G174" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H174" s="9" t="s">
-        <v>30</v>
+        <v>2</v>
+      </c>
+      <c r="B174" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="175" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A175" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B175" s="9">
-        <v>0.22</v>
-      </c>
-      <c r="D175" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E175" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F175" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H175" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="177" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A177" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B177" s="8" t="s">
-        <v>89</v>
+        <v>3</v>
+      </c>
+      <c r="B175" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B176" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B177" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="178" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A178" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B178" s="9">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="B178" s="9" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="179" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A179" s="9" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B180" s="9" t="s">
-        <v>4</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A180" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="181" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A181" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B181" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C181" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D181" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B181" s="9" t="s">
-        <v>6</v>
+      <c r="E181" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F181" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G181" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H181" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I181" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="182" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B182" s="9" t="s">
-        <v>8</v>
+      <c r="A182" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B182" s="9">
+        <v>1</v>
+      </c>
+      <c r="C182" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D182" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F182" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G182" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H182" s="9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="183" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A183" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B183" s="9" t="s">
-        <v>50</v>
+        <v>91</v>
+      </c>
+      <c r="B183" s="9">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="C183" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D183" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F183" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G183" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H183" s="9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="184" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A184" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B184" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A185" s="7" t="s">
-        <v>10</v>
+        <v>19</v>
+      </c>
+      <c r="B184" s="9">
+        <v>3.6416023188405786</v>
+      </c>
+      <c r="D184" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E184" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F184" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H184" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B185" s="9">
+        <v>1.0754991304347825E-3</v>
+      </c>
+      <c r="D185" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E185" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F185" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H185" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="186" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B186" s="9" t="s">
-        <v>12</v>
+      <c r="A186" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B186" s="11">
+        <v>6.7000000000000001E-12</v>
       </c>
       <c r="C186" s="9" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D186" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E186" s="9" t="s">
-        <v>13</v>
-      </c>
       <c r="F186" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G186" s="9" t="s">
-        <v>2</v>
+        <v>18</v>
+      </c>
+      <c r="G186" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="H186" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I186" s="9" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="187" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B187" s="9">
-        <v>1</v>
+      <c r="A187" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B187" s="11">
+        <v>8.7242061855670114E-2</v>
       </c>
       <c r="C187" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D187" s="9" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="F187" s="9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G187" s="9" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H187" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B188" s="9">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="C188" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D188" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F188" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G188" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H188" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B189" s="9">
-        <v>3.6416023188405786</v>
-      </c>
-      <c r="D189" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E189" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F189" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H189" s="9" t="s">
-        <v>23</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="189" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A189" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B189" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="190" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="9" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="B190" s="9">
-        <v>1.0754991304347825E-3</v>
-      </c>
-      <c r="D190" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E190" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F190" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H190" s="9" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B191" s="11">
-        <v>6.7000000000000001E-12</v>
-      </c>
-      <c r="C191" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D191" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F191" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G191" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H191" s="9" t="s">
-        <v>40</v>
+      <c r="A191" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B191" s="9" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="192" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A192" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B192" s="11">
-        <v>8.7242061855670114E-2</v>
-      </c>
-      <c r="C192" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D192" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F192" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G192" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H192" s="9" t="s">
-        <v>30</v>
+        <v>3</v>
+      </c>
+      <c r="B192" s="9" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="193" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A193" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B193" s="9">
-        <v>0.19</v>
-      </c>
-      <c r="D193" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E193" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="F193" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H193" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="195" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A195" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B195" s="8" t="s">
-        <v>86</v>
+        <v>5</v>
+      </c>
+      <c r="B193" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B194" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B195" s="9" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="196" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A196" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B196" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B197" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="B196" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A197" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="198" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A198" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B198" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C198" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D198" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E198" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F198" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B198" s="9" t="s">
-        <v>4</v>
+      <c r="G198" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H198" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I198" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="199" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B199" s="9" t="s">
-        <v>6</v>
+      <c r="A199" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B199" s="9">
+        <v>1</v>
+      </c>
+      <c r="C199" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D199" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F199" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G199" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H199" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I199" s="9" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="200" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A200" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B200" s="9" t="s">
-        <v>8</v>
+        <v>91</v>
+      </c>
+      <c r="B200" s="9">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="C200" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D200" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F200" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G200" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H200" s="9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="201" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B201" s="9" t="s">
-        <v>51</v>
+        <v>19</v>
+      </c>
+      <c r="B201" s="9">
+        <v>3.6416023188405786</v>
+      </c>
+      <c r="D201" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E201" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F201" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H201" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="202" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B202" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B202" s="9">
+        <v>1.0754991304347825E-3</v>
+      </c>
+      <c r="D202" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E202" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F202" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H202" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B203" s="11">
+        <v>6.7000000000000001E-12</v>
+      </c>
+      <c r="C203" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D203" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F203" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G203" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H203" s="9" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A203" s="7" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="204" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A204" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B204" s="9" t="s">
-        <v>12</v>
+        <v>27</v>
+      </c>
+      <c r="B204" s="11">
+        <v>8.7242061855670114E-2</v>
       </c>
       <c r="C204" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D204" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E204" s="9" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F204" s="9" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G204" s="9" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="H204" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I204" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B205" s="9">
-        <v>1</v>
-      </c>
-      <c r="C205" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D205" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F205" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G205" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H205" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="I205" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B206" s="9">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="C206" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D206" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F206" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G206" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H206" s="9" t="s">
-        <v>40</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="206" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A206" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B206" s="8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="207" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A207" s="9" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B207" s="9">
-        <v>3.6416023188405786</v>
-      </c>
-      <c r="D207" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E207" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F207" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H207" s="9" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A208" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B208" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B209" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B210" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B211" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B212" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B213" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A214" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B215" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C215" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D215" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E215" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F215" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G215" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B216" s="9">
+        <v>0.875</v>
+      </c>
+      <c r="C216" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D216" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F216" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G216" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A217" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B217" s="9">
+        <v>0.125</v>
+      </c>
+      <c r="C217" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D217" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F217" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G217" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B218" s="9">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="C218" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D218" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F218" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G218" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B208" s="9">
-        <v>1.0754991304347825E-3</v>
-      </c>
-      <c r="D208" s="9" t="s">
+      <c r="B219" s="9">
+        <f>60*0.001/106.6</f>
+        <v>5.6285178236397749E-4</v>
+      </c>
+      <c r="D219" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E208" s="9" t="s">
+      <c r="E219" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F208" s="9" t="s">
+      <c r="F219" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H208" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B209" s="11">
-        <v>6.7000000000000001E-12</v>
-      </c>
-      <c r="C209" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D209" s="9" t="s">
+    </row>
+    <row r="220" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B220" s="9">
+        <v>1</v>
+      </c>
+      <c r="C220" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D220" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F220" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G220" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B221" s="13">
+        <v>5.7100000000000004E-6</v>
+      </c>
+      <c r="C221" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D221" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F209" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G209" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H209" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B210" s="11">
-        <v>8.7242061855670114E-2</v>
-      </c>
-      <c r="C210" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D210" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F210" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G210" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H210" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B211" s="9">
-        <v>0.06</v>
-      </c>
-      <c r="D211" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E211" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="F211" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H211" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="213" spans="1:8" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A213" s="7" t="s">
+      <c r="F221" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B222" s="13"/>
+    </row>
+    <row r="223" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A223" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B213" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="9" t="s">
+      <c r="B223" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B214" s="9">
+      <c r="B224" s="9">
         <v>1</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B215" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B216" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B217" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B218" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B219" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B220" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A221" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B222" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C222" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D222" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E222" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F222" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G222" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B223" s="9">
-        <v>0.875</v>
-      </c>
-      <c r="C223" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D223" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F223" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G223" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A224" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B224" s="9">
-        <v>0.125</v>
-      </c>
-      <c r="C224" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D224" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F224" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G224" s="12" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="225" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A225" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B225" s="9">
-        <f>60*0.001/106.6</f>
-        <v>5.6285178236397749E-4</v>
-      </c>
-      <c r="D225" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E225" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F225" s="9" t="s">
-        <v>22</v>
+        <v>2</v>
+      </c>
+      <c r="B225" s="9" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="226" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A226" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B226" s="9">
-        <v>1</v>
-      </c>
-      <c r="C226" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D226" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F226" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G226" s="9" t="s">
-        <v>17</v>
+        <v>3</v>
+      </c>
+      <c r="B226" s="9" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="227" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A227" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B227" s="13">
-        <v>5.7100000000000004E-6</v>
-      </c>
-      <c r="C227" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D227" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F227" s="9" t="s">
-        <v>18</v>
+      <c r="B227" s="9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="228" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B228" s="13"/>
-    </row>
-    <row r="229" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A229" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B229" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B230" s="9">
-        <v>1</v>
+      <c r="A228" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B228" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A229" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B229" s="17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A230" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="231" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A231" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B231" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C231" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D231" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E231" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F231" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G231" s="9" t="s">
         <v>2</v>
-      </c>
-      <c r="B231" s="9" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="232" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A232" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B232" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B232" s="9">
+        <v>1</v>
+      </c>
+      <c r="C232" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D232" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F232" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G232" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A233" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B233" s="9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C233" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D233" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F233" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G233" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A234" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B234" s="11">
+        <v>1.9300000000000002E-9</v>
+      </c>
+      <c r="C234" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D234" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B233" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B234" s="9" t="s">
-        <v>8</v>
+      <c r="F234" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G234" s="10" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="235" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B235" s="9" t="s">
-        <v>34</v>
-      </c>
+      <c r="A235" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B235" s="11">
+        <v>-1.57</v>
+      </c>
+      <c r="D235" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E235" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F235" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G235" s="10"/>
     </row>
     <row r="236" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A236" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B237" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C237" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D237" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E237" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F237" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G237" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B238" s="9">
-        <v>1</v>
-      </c>
-      <c r="C238" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D238" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F238" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G238" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A239" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B239" s="9">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C239" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D239" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F239" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G239" s="12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A240" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B240" s="9">
-        <v>1.57</v>
-      </c>
-      <c r="C240" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D240" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F240" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G240" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B241" s="11">
-        <v>1.9300000000000002E-9</v>
-      </c>
-      <c r="C241" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D241" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F241" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G241" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="10"/>
-      <c r="B242" s="11"/>
-      <c r="G242" s="10"/>
-    </row>
-    <row r="244" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A244" s="1"/>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B250" s="3"/>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B251" s="3"/>
+      <c r="A236" s="12"/>
+      <c r="G236" s="12"/>
+    </row>
+    <row r="237" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A237" s="1"/>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B243" s="3"/>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B244" s="3"/>
+    </row>
+    <row r="246" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A246" s="1"/>
+      <c r="B246" s="2"/>
     </row>
     <row r="253" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A253" s="1"/>
-      <c r="B253" s="2"/>
-    </row>
-    <row r="260" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A260" s="1"/>
-    </row>
-    <row r="263" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A263" s="4"/>
-      <c r="G263" s="4"/>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B267" s="5"/>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B268" s="5"/>
+    </row>
+    <row r="256" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A256" s="4"/>
+      <c r="G256" s="4"/>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B260" s="5"/>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B261" s="5"/>
+    </row>
+    <row r="262" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A262" s="1"/>
+      <c r="B262" s="2"/>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B264" s="6"/>
     </row>
     <row r="269" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A269" s="1"/>
-      <c r="B269" s="2"/>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B271" s="6"/>
+      <c r="A271" s="6"/>
+      <c r="G271" s="6"/>
+    </row>
+    <row r="272" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A272" s="4"/>
+      <c r="G272" s="4"/>
+    </row>
+    <row r="273" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A273" s="4"/>
+      <c r="G273" s="4"/>
     </row>
     <row r="276" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A276" s="1"/>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A278" s="6"/>
-      <c r="G278" s="6"/>
-    </row>
-    <row r="279" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A279" s="4"/>
-      <c r="G279" s="4"/>
-    </row>
-    <row r="280" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A280" s="4"/>
-      <c r="G280" s="4"/>
+      <c r="B276" s="2"/>
     </row>
     <row r="283" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A283" s="1"/>
-      <c r="B283" s="2"/>
-    </row>
-    <row r="290" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A290" s="1"/>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B296" s="3"/>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B297" s="3"/>
-    </row>
-    <row r="299" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B289" s="3"/>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B290" s="3"/>
+    </row>
+    <row r="292" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A292" s="1"/>
+      <c r="B292" s="2"/>
+    </row>
+    <row r="299" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A299" s="1"/>
-      <c r="B299" s="2"/>
-    </row>
-    <row r="306" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A306" s="1"/>
-    </row>
-    <row r="309" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A309" s="4"/>
-      <c r="G309" s="4"/>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B313" s="5"/>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B314" s="5"/>
+    </row>
+    <row r="302" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A302" s="4"/>
+      <c r="G302" s="4"/>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B306" s="5"/>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B307" s="5"/>
+    </row>
+    <row r="308" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A308" s="1"/>
+      <c r="B308" s="2"/>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B310" s="6"/>
     </row>
     <row r="315" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A315" s="1"/>
-      <c r="B315" s="2"/>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B317" s="6"/>
-    </row>
-    <row r="322" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A317" s="6"/>
+      <c r="G317" s="6"/>
+    </row>
+    <row r="318" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A318" s="4"/>
+      <c r="G318" s="4"/>
+    </row>
+    <row r="319" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A319" s="4"/>
+      <c r="G319" s="4"/>
+    </row>
+    <row r="322" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A322" s="1"/>
-    </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A324" s="6"/>
-      <c r="G324" s="6"/>
-    </row>
-    <row r="325" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A325" s="4"/>
-      <c r="G325" s="4"/>
-    </row>
-    <row r="326" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A326" s="4"/>
-      <c r="G326" s="4"/>
-    </row>
-    <row r="329" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B322" s="2"/>
+    </row>
+    <row r="329" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A329" s="1"/>
-      <c r="B329" s="2"/>
-    </row>
-    <row r="336" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A336" s="1"/>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B342" s="3"/>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B343" s="3"/>
-    </row>
-    <row r="345" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B335" s="3"/>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B336" s="3"/>
+    </row>
+    <row r="338" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A338" s="1"/>
+      <c r="B338" s="2"/>
+    </row>
+    <row r="345" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A345" s="1"/>
-      <c r="B345" s="2"/>
-    </row>
-    <row r="352" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A352" s="1"/>
-    </row>
-    <row r="355" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A355" s="4"/>
-      <c r="G355" s="4"/>
-    </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B359" s="5"/>
-    </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B360" s="5"/>
+    </row>
+    <row r="348" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A348" s="4"/>
+      <c r="G348" s="4"/>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B352" s="5"/>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B353" s="5"/>
+    </row>
+    <row r="354" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A354" s="1"/>
+      <c r="B354" s="2"/>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B356" s="6"/>
     </row>
     <row r="361" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A361" s="1"/>
-      <c r="B361" s="2"/>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B363" s="6"/>
+      <c r="A363" s="6"/>
+      <c r="G363" s="6"/>
+    </row>
+    <row r="364" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A364" s="4"/>
+      <c r="G364" s="4"/>
+    </row>
+    <row r="365" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A365" s="4"/>
+      <c r="G365" s="4"/>
     </row>
     <row r="368" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A368" s="1"/>
-    </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A370" s="6"/>
-      <c r="G370" s="6"/>
-    </row>
-    <row r="371" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A371" s="4"/>
-      <c r="G371" s="4"/>
-    </row>
-    <row r="372" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A372" s="4"/>
-      <c r="G372" s="4"/>
-    </row>
-    <row r="375" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B368" s="2"/>
+    </row>
+    <row r="375" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A375" s="1"/>
-      <c r="B375" s="2"/>
-    </row>
-    <row r="382" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A382" s="1"/>
-    </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B388" s="3"/>
-    </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B389" s="3"/>
-    </row>
-    <row r="391" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B381" s="3"/>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B382" s="3"/>
+    </row>
+    <row r="384" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A384" s="1"/>
+      <c r="B384" s="2"/>
+    </row>
+    <row r="391" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A391" s="1"/>
-      <c r="B391" s="2"/>
-    </row>
-    <row r="398" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A398" s="1"/>
-    </row>
-    <row r="401" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A401" s="4"/>
-      <c r="G401" s="4"/>
-    </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B405" s="5"/>
-    </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B406" s="5"/>
+    </row>
+    <row r="394" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A394" s="4"/>
+      <c r="G394" s="4"/>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B398" s="5"/>
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B399" s="5"/>
+    </row>
+    <row r="400" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A400" s="1"/>
+      <c r="B400" s="2"/>
+    </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B402" s="6"/>
     </row>
     <row r="407" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A407" s="1"/>
-      <c r="B407" s="2"/>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B409" s="6"/>
+      <c r="A409" s="6"/>
+      <c r="G409" s="6"/>
+    </row>
+    <row r="410" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A410" s="4"/>
+      <c r="G410" s="4"/>
+    </row>
+    <row r="411" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A411" s="4"/>
+      <c r="G411" s="4"/>
     </row>
     <row r="414" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A414" s="1"/>
-    </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A416" s="6"/>
-      <c r="G416" s="6"/>
-    </row>
-    <row r="417" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A417" s="4"/>
-      <c r="G417" s="4"/>
-    </row>
-    <row r="418" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A418" s="4"/>
-      <c r="G418" s="4"/>
-    </row>
-    <row r="421" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B414" s="2"/>
+    </row>
+    <row r="421" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A421" s="1"/>
-      <c r="B421" s="2"/>
-    </row>
-    <row r="428" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A428" s="1"/>
-    </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B434" s="3"/>
-    </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B435" s="3"/>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B427" s="3"/>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B428" s="3"/>
+    </row>
+    <row r="430" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A430" s="1"/>
+      <c r="B430" s="2"/>
     </row>
     <row r="437" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A437" s="1"/>
-      <c r="B437" s="2"/>
-    </row>
-    <row r="444" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A444" s="1"/>
-    </row>
-    <row r="447" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A447" s="4"/>
-      <c r="G447" s="4"/>
-    </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B451" s="5"/>
+    </row>
+    <row r="440" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A440" s="4"/>
+      <c r="G440" s="4"/>
+    </row>
+    <row r="444" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B444" s="5"/>
+    </row>
+    <row r="446" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A446" s="1"/>
+      <c r="B446" s="2"/>
+    </row>
+    <row r="448" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B448" s="6"/>
     </row>
     <row r="453" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A453" s="1"/>
-      <c r="B453" s="2"/>
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B455" s="6"/>
-    </row>
-    <row r="460" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A460" s="1"/>
-    </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A462" s="6"/>
-      <c r="G462" s="6"/>
-    </row>
-    <row r="463" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A463" s="4"/>
-      <c r="G463" s="4"/>
-    </row>
-    <row r="464" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A464" s="4"/>
-      <c r="G464" s="4"/>
+      <c r="A455" s="6"/>
+      <c r="G455" s="6"/>
+    </row>
+    <row r="456" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A456" s="4"/>
+      <c r="G456" s="4"/>
+    </row>
+    <row r="457" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A457" s="4"/>
+      <c r="G457" s="4"/>
+    </row>
+    <row r="459" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A459" s="1"/>
+      <c r="B459" s="2"/>
     </row>
     <row r="466" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A466" s="1"/>
-      <c r="B466" s="2"/>
-    </row>
-    <row r="473" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A473" s="1"/>
-    </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B479" s="3"/>
-    </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B480" s="3"/>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B472" s="3"/>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B473" s="3"/>
+    </row>
+    <row r="475" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A475" s="1"/>
+      <c r="B475" s="2"/>
     </row>
     <row r="482" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A482" s="1"/>
-      <c r="B482" s="2"/>
-    </row>
-    <row r="489" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A489" s="1"/>
-    </row>
-    <row r="492" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A492" s="4"/>
-      <c r="G492" s="4"/>
-    </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B496" s="5"/>
-    </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B497" s="5"/>
+    </row>
+    <row r="485" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A485" s="4"/>
+      <c r="G485" s="4"/>
+    </row>
+    <row r="489" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B489" s="5"/>
+    </row>
+    <row r="490" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B490" s="5"/>
+    </row>
+    <row r="491" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A491" s="1"/>
+      <c r="B491" s="2"/>
+    </row>
+    <row r="493" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B493" s="6"/>
     </row>
     <row r="498" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A498" s="1"/>
-      <c r="B498" s="2"/>
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B500" s="6"/>
+      <c r="A500" s="6"/>
+      <c r="G500" s="6"/>
+    </row>
+    <row r="501" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A501" s="4"/>
+      <c r="G501" s="4"/>
+    </row>
+    <row r="502" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A502" s="4"/>
+      <c r="G502" s="4"/>
     </row>
     <row r="505" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A505" s="1"/>
-    </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A507" s="6"/>
-      <c r="G507" s="6"/>
-    </row>
-    <row r="508" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A508" s="4"/>
-      <c r="G508" s="4"/>
-    </row>
-    <row r="509" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A509" s="4"/>
-      <c r="G509" s="4"/>
+      <c r="B505" s="2"/>
     </row>
     <row r="512" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A512" s="1"/>
-      <c r="B512" s="2"/>
-    </row>
-    <row r="519" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A519" s="1"/>
-    </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B525" s="3"/>
-    </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B526" s="3"/>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B518" s="3"/>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B519" s="3"/>
+    </row>
+    <row r="521" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A521" s="1"/>
+      <c r="B521" s="2"/>
     </row>
     <row r="528" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A528" s="1"/>
-      <c r="B528" s="2"/>
-    </row>
-    <row r="535" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A535" s="1"/>
-    </row>
-    <row r="538" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A538" s="4"/>
-      <c r="G538" s="4"/>
-    </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B542" s="5"/>
+    </row>
+    <row r="531" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A531" s="4"/>
+      <c r="G531" s="4"/>
+    </row>
+    <row r="535" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B535" s="5"/>
+    </row>
+    <row r="537" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A537" s="1"/>
+      <c r="B537" s="2"/>
+    </row>
+    <row r="539" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B539" s="6"/>
     </row>
     <row r="544" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A544" s="1"/>
-      <c r="B544" s="2"/>
     </row>
     <row r="546" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B546" s="6"/>
-    </row>
-    <row r="551" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A551" s="1"/>
-    </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A553" s="6"/>
-      <c r="G553" s="6"/>
-    </row>
-    <row r="554" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A554" s="4"/>
-      <c r="G554" s="4"/>
-    </row>
-    <row r="555" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A555" s="4"/>
-      <c r="G555" s="4"/>
-    </row>
-    <row r="557" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A557" s="1"/>
-      <c r="B557" s="2"/>
-    </row>
-    <row r="563" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A563" s="1"/>
-    </row>
-    <row r="568" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A568" s="1"/>
-      <c r="B568" s="2"/>
-    </row>
-    <row r="574" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A574" s="1"/>
+      <c r="A546" s="6"/>
+      <c r="G546" s="6"/>
+    </row>
+    <row r="547" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A547" s="4"/>
+      <c r="G547" s="4"/>
+    </row>
+    <row r="548" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A548" s="4"/>
+      <c r="G548" s="4"/>
+    </row>
+    <row r="550" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A550" s="1"/>
+      <c r="B550" s="2"/>
+    </row>
+    <row r="556" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A556" s="1"/>
+    </row>
+    <row r="561" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A561" s="1"/>
+      <c r="B561" s="2"/>
+    </row>
+    <row r="567" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A567" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/premise/data/additional_inventories/lci-synfuels-from-FT-from-coal-gasification.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-FT-from-coal-gasification.xlsx
@@ -1,25 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sacchi_r\Documents\GitHub\premise\premise\data\additional_inventories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422DFF92-1A07-684C-BEE8-89916CBDFFDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27252" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FT fuel - Diesel" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029" iterate="1" iterateCount="5"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="98">
   <si>
     <t>Activity</t>
   </si>
@@ -320,7 +333,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -727,21 +740,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K567"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
-      <selection activeCell="F235" sqref="F235"/>
+    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="A221" sqref="A221"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="83.77734375" customWidth="1"/>
-    <col min="2" max="2" width="32.44140625" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="83.83203125" customWidth="1"/>
+    <col min="2" max="2" width="32.5" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -749,10 +762,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -760,7 +773,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -768,7 +781,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
@@ -776,7 +789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>2</v>
       </c>
@@ -784,7 +797,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>3</v>
       </c>
@@ -792,7 +805,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
@@ -800,12 +813,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>11</v>
       </c>
@@ -840,7 +853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>92</v>
       </c>
@@ -869,7 +882,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>81</v>
       </c>
@@ -894,7 +907,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>27</v>
       </c>
@@ -919,7 +932,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>59</v>
       </c>
@@ -944,7 +957,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>61</v>
       </c>
@@ -969,7 +982,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>63</v>
       </c>
@@ -994,7 +1007,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>65</v>
       </c>
@@ -1019,7 +1032,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>67</v>
       </c>
@@ -1044,7 +1057,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>69</v>
       </c>
@@ -1069,7 +1082,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>71</v>
       </c>
@@ -1094,7 +1107,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>74</v>
       </c>
@@ -1119,7 +1132,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>78</v>
       </c>
@@ -1144,12 +1157,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" s="16"/>
       <c r="G23" s="12"/>
     </row>
-    <row r="24" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>0</v>
       </c>
@@ -1157,7 +1170,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>7</v>
       </c>
@@ -1165,7 +1178,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>1</v>
       </c>
@@ -1173,7 +1186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>2</v>
       </c>
@@ -1181,7 +1194,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>3</v>
       </c>
@@ -1189,7 +1202,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>5</v>
       </c>
@@ -1197,12 +1210,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
         <v>11</v>
       </c>
@@ -1237,7 +1250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
         <v>93</v>
       </c>
@@ -1266,7 +1279,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
         <v>82</v>
       </c>
@@ -1291,7 +1304,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>27</v>
       </c>
@@ -1316,7 +1329,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
         <v>59</v>
       </c>
@@ -1341,7 +1354,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
         <v>61</v>
       </c>
@@ -1366,7 +1379,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
         <v>63</v>
       </c>
@@ -1391,7 +1404,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
         <v>65</v>
       </c>
@@ -1416,7 +1429,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
         <v>67</v>
       </c>
@@ -1441,7 +1454,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
         <v>69</v>
       </c>
@@ -1466,7 +1479,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
         <v>71</v>
       </c>
@@ -1491,7 +1504,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
         <v>74</v>
       </c>
@@ -1516,7 +1529,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
         <v>78</v>
       </c>
@@ -1541,12 +1554,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="12"/>
       <c r="B44" s="16"/>
       <c r="G44" s="12"/>
     </row>
-    <row r="45" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>0</v>
       </c>
@@ -1554,7 +1567,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
         <v>7</v>
       </c>
@@ -1562,7 +1575,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
         <v>1</v>
       </c>
@@ -1570,7 +1583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
         <v>2</v>
       </c>
@@ -1578,7 +1591,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
         <v>3</v>
       </c>
@@ -1586,7 +1599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
         <v>5</v>
       </c>
@@ -1594,12 +1607,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
         <v>11</v>
       </c>
@@ -1634,7 +1647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
         <v>94</v>
       </c>
@@ -1663,7 +1676,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
         <v>83</v>
       </c>
@@ -1688,7 +1701,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
         <v>27</v>
       </c>
@@ -1713,7 +1726,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
         <v>59</v>
       </c>
@@ -1738,7 +1751,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
         <v>61</v>
       </c>
@@ -1763,7 +1776,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
         <v>63</v>
       </c>
@@ -1788,7 +1801,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
         <v>65</v>
       </c>
@@ -1813,7 +1826,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
         <v>67</v>
       </c>
@@ -1838,7 +1851,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
         <v>69</v>
       </c>
@@ -1863,7 +1876,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="62" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
         <v>71</v>
       </c>
@@ -1888,7 +1901,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
         <v>74</v>
       </c>
@@ -1913,7 +1926,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="64" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
         <v>78</v>
       </c>
@@ -1938,12 +1951,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="65" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="12"/>
       <c r="B65" s="16"/>
       <c r="G65" s="12"/>
     </row>
-    <row r="66" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
         <v>0</v>
       </c>
@@ -1951,7 +1964,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
         <v>7</v>
       </c>
@@ -1959,7 +1972,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
         <v>1</v>
       </c>
@@ -1967,7 +1980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="9" t="s">
         <v>2</v>
       </c>
@@ -1975,7 +1988,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="70" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
         <v>3</v>
       </c>
@@ -1983,7 +1996,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
         <v>5</v>
       </c>
@@ -1991,12 +2004,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
         <v>11</v>
       </c>
@@ -2031,7 +2044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
         <v>95</v>
       </c>
@@ -2060,7 +2073,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
         <v>84</v>
       </c>
@@ -2085,7 +2098,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="76" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="9" t="s">
         <v>27</v>
       </c>
@@ -2110,7 +2123,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="77" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
         <v>59</v>
       </c>
@@ -2135,7 +2148,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="78" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
         <v>61</v>
       </c>
@@ -2160,7 +2173,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="79" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
         <v>63</v>
       </c>
@@ -2185,7 +2198,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="80" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
         <v>65</v>
       </c>
@@ -2210,7 +2223,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="81" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
         <v>67</v>
       </c>
@@ -2235,7 +2248,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="82" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
         <v>69</v>
       </c>
@@ -2260,7 +2273,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="83" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
         <v>71</v>
       </c>
@@ -2285,7 +2298,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="84" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
         <v>74</v>
       </c>
@@ -2310,7 +2323,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="85" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
         <v>78</v>
       </c>
@@ -2335,12 +2348,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="86" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="12"/>
       <c r="B86" s="16"/>
       <c r="G86" s="12"/>
     </row>
-    <row r="87" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
         <v>0</v>
       </c>
@@ -2348,7 +2361,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="88" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="9" t="s">
         <v>1</v>
       </c>
@@ -2356,7 +2369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="9" t="s">
         <v>2</v>
       </c>
@@ -2364,7 +2377,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="90" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="9" t="s">
         <v>3</v>
       </c>
@@ -2372,7 +2385,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="9" t="s">
         <v>5</v>
       </c>
@@ -2380,7 +2393,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="9" t="s">
         <v>7</v>
       </c>
@@ -2388,7 +2401,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="9" t="s">
         <v>9</v>
       </c>
@@ -2396,7 +2409,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="94" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="9" t="s">
         <v>37</v>
       </c>
@@ -2404,12 +2417,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="95" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="9" t="s">
         <v>11</v>
       </c>
@@ -2438,7 +2451,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
         <v>81</v>
       </c>
@@ -2464,7 +2477,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="98" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="9" t="s">
         <v>91</v>
       </c>
@@ -2487,7 +2500,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="99" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="9" t="s">
         <v>19</v>
       </c>
@@ -2507,7 +2520,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="9" t="s">
         <v>24</v>
       </c>
@@ -2527,7 +2540,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="101" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
         <v>40</v>
       </c>
@@ -2550,7 +2563,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="102" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="9" t="s">
         <v>27</v>
       </c>
@@ -2573,8 +2586,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="103" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="104" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="104" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
         <v>0</v>
       </c>
@@ -2582,7 +2595,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="105" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="9" t="s">
         <v>1</v>
       </c>
@@ -2590,7 +2603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="9" t="s">
         <v>2</v>
       </c>
@@ -2598,7 +2611,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="107" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="9" t="s">
         <v>3</v>
       </c>
@@ -2606,7 +2619,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="9" t="s">
         <v>5</v>
       </c>
@@ -2614,7 +2627,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="9" t="s">
         <v>7</v>
       </c>
@@ -2622,7 +2635,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="9" t="s">
         <v>9</v>
       </c>
@@ -2630,7 +2643,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="111" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="9" t="s">
         <v>37</v>
       </c>
@@ -2638,12 +2651,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="112" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="9" t="s">
         <v>11</v>
       </c>
@@ -2672,7 +2685,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
         <v>85</v>
       </c>
@@ -2695,7 +2708,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="115" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="9" t="s">
         <v>91</v>
       </c>
@@ -2718,7 +2731,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="116" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="9" t="s">
         <v>19</v>
       </c>
@@ -2738,7 +2751,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="117" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="9" t="s">
         <v>24</v>
       </c>
@@ -2758,7 +2771,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="118" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
         <v>40</v>
       </c>
@@ -2781,7 +2794,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="119" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="9" t="s">
         <v>27</v>
       </c>
@@ -2804,8 +2817,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="120" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="121" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="121" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="7" t="s">
         <v>0</v>
       </c>
@@ -2813,7 +2826,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="122" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="9" t="s">
         <v>1</v>
       </c>
@@ -2821,7 +2834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="9" t="s">
         <v>2</v>
       </c>
@@ -2829,7 +2842,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="124" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="9" t="s">
         <v>3</v>
       </c>
@@ -2837,7 +2850,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="9" t="s">
         <v>5</v>
       </c>
@@ -2845,7 +2858,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="9" t="s">
         <v>7</v>
       </c>
@@ -2853,7 +2866,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="9" t="s">
         <v>9</v>
       </c>
@@ -2861,7 +2874,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="128" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="9" t="s">
         <v>37</v>
       </c>
@@ -2869,12 +2882,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="129" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="9" t="s">
         <v>11</v>
       </c>
@@ -2903,7 +2916,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
         <v>82</v>
       </c>
@@ -2929,7 +2942,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="132" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="9" t="s">
         <v>91</v>
       </c>
@@ -2952,7 +2965,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="133" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="9" t="s">
         <v>19</v>
       </c>
@@ -2972,7 +2985,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="134" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="9" t="s">
         <v>24</v>
       </c>
@@ -2992,7 +3005,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="135" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
         <v>40</v>
       </c>
@@ -3015,7 +3028,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="136" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="9" t="s">
         <v>27</v>
       </c>
@@ -3038,8 +3051,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="137" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="138" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="138" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="7" t="s">
         <v>0</v>
       </c>
@@ -3047,7 +3060,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="139" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="9" t="s">
         <v>1</v>
       </c>
@@ -3055,7 +3068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="9" t="s">
         <v>2</v>
       </c>
@@ -3063,7 +3076,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="141" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="9" t="s">
         <v>3</v>
       </c>
@@ -3071,7 +3084,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="9" t="s">
         <v>5</v>
       </c>
@@ -3079,7 +3092,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="9" t="s">
         <v>7</v>
       </c>
@@ -3087,7 +3100,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="9" t="s">
         <v>9</v>
       </c>
@@ -3095,7 +3108,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="145" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="9" t="s">
         <v>37</v>
       </c>
@@ -3103,12 +3116,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="146" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="9" t="s">
         <v>11</v>
       </c>
@@ -3137,7 +3150,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A148" s="10" t="s">
         <v>86</v>
       </c>
@@ -3163,7 +3176,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="149" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="9" t="s">
         <v>91</v>
       </c>
@@ -3186,7 +3199,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="150" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="9" t="s">
         <v>19</v>
       </c>
@@ -3206,7 +3219,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="151" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="9" t="s">
         <v>24</v>
       </c>
@@ -3226,7 +3239,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="152" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="10" t="s">
         <v>40</v>
       </c>
@@ -3249,7 +3262,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="153" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="9" t="s">
         <v>27</v>
       </c>
@@ -3272,10 +3285,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="154" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B154" s="11"/>
     </row>
-    <row r="155" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="7" t="s">
         <v>0</v>
       </c>
@@ -3283,7 +3296,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="156" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="9" t="s">
         <v>1</v>
       </c>
@@ -3291,7 +3304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="9" t="s">
         <v>2</v>
       </c>
@@ -3299,7 +3312,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="158" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="9" t="s">
         <v>3</v>
       </c>
@@ -3307,7 +3320,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="9" t="s">
         <v>5</v>
       </c>
@@ -3315,7 +3328,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="160" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A160" s="9" t="s">
         <v>7</v>
       </c>
@@ -3323,7 +3336,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" s="9" t="s">
         <v>9</v>
       </c>
@@ -3331,7 +3344,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="162" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A162" s="9" t="s">
         <v>37</v>
       </c>
@@ -3339,12 +3352,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="163" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" s="9" t="s">
         <v>11</v>
       </c>
@@ -3373,7 +3386,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="165" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" s="10" t="s">
         <v>83</v>
       </c>
@@ -3399,7 +3412,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="166" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A166" s="9" t="s">
         <v>91</v>
       </c>
@@ -3422,7 +3435,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="167" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="9" t="s">
         <v>19</v>
       </c>
@@ -3442,7 +3455,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="168" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" s="9" t="s">
         <v>24</v>
       </c>
@@ -3462,7 +3475,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="169" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="10" t="s">
         <v>40</v>
       </c>
@@ -3485,7 +3498,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="170" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="9" t="s">
         <v>27</v>
       </c>
@@ -3508,8 +3521,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="171" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="172" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="172" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="7" t="s">
         <v>0</v>
       </c>
@@ -3517,7 +3530,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="173" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="9" t="s">
         <v>1</v>
       </c>
@@ -3525,7 +3538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="9" t="s">
         <v>2</v>
       </c>
@@ -3533,7 +3546,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="175" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="9" t="s">
         <v>3</v>
       </c>
@@ -3541,7 +3554,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="9" t="s">
         <v>5</v>
       </c>
@@ -3549,7 +3562,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="177" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="9" t="s">
         <v>7</v>
       </c>
@@ -3557,7 +3570,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A178" s="9" t="s">
         <v>9</v>
       </c>
@@ -3565,7 +3578,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="179" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A179" s="9" t="s">
         <v>37</v>
       </c>
@@ -3573,12 +3586,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="180" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A181" s="9" t="s">
         <v>11</v>
       </c>
@@ -3607,7 +3620,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="182" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182" s="10" t="s">
         <v>87</v>
       </c>
@@ -3630,7 +3643,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="183" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A183" s="9" t="s">
         <v>91</v>
       </c>
@@ -3653,7 +3666,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="184" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A184" s="9" t="s">
         <v>19</v>
       </c>
@@ -3673,7 +3686,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="185" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" s="9" t="s">
         <v>24</v>
       </c>
@@ -3693,7 +3706,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="186" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A186" s="10" t="s">
         <v>40</v>
       </c>
@@ -3716,7 +3729,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="187" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" s="9" t="s">
         <v>27</v>
       </c>
@@ -3739,8 +3752,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="188" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="189" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="189" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="7" t="s">
         <v>0</v>
       </c>
@@ -3748,7 +3761,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="190" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="9" t="s">
         <v>1</v>
       </c>
@@ -3756,7 +3769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A191" s="9" t="s">
         <v>2</v>
       </c>
@@ -3764,7 +3777,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="192" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" s="9" t="s">
         <v>3</v>
       </c>
@@ -3772,7 +3785,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="9" t="s">
         <v>5</v>
       </c>
@@ -3780,7 +3793,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="194" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="9" t="s">
         <v>7</v>
       </c>
@@ -3788,7 +3801,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="195" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A195" s="9" t="s">
         <v>9</v>
       </c>
@@ -3796,7 +3809,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="196" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A196" s="9" t="s">
         <v>37</v>
       </c>
@@ -3804,12 +3817,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="197" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="198" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A198" s="9" t="s">
         <v>11</v>
       </c>
@@ -3838,7 +3851,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="199" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A199" s="10" t="s">
         <v>84</v>
       </c>
@@ -3864,7 +3877,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="200" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" s="9" t="s">
         <v>91</v>
       </c>
@@ -3887,7 +3900,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="201" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A201" s="9" t="s">
         <v>19</v>
       </c>
@@ -3907,7 +3920,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="202" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A202" s="9" t="s">
         <v>24</v>
       </c>
@@ -3927,7 +3940,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="203" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A203" s="10" t="s">
         <v>40</v>
       </c>
@@ -3950,7 +3963,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="204" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A204" s="9" t="s">
         <v>27</v>
       </c>
@@ -3973,8 +3986,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="205" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="206" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="206" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A206" s="7" t="s">
         <v>0</v>
       </c>
@@ -3982,7 +3995,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="207" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A207" s="9" t="s">
         <v>1</v>
       </c>
@@ -3990,7 +4003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A208" s="9" t="s">
         <v>2</v>
       </c>
@@ -3998,7 +4011,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="209" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A209" s="9" t="s">
         <v>3</v>
       </c>
@@ -4006,7 +4019,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A210" s="9" t="s">
         <v>5</v>
       </c>
@@ -4014,7 +4027,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="211" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A211" s="9" t="s">
         <v>7</v>
       </c>
@@ -4022,7 +4035,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="212" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A212" s="9" t="s">
         <v>9</v>
       </c>
@@ -4030,7 +4043,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="213" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A213" s="9" t="s">
         <v>37</v>
       </c>
@@ -4038,12 +4051,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="214" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A214" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="215" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A215" s="9" t="s">
         <v>11</v>
       </c>
@@ -4066,7 +4079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A216" s="9" t="s">
         <v>90</v>
       </c>
@@ -4086,7 +4099,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="217" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A217" s="12" t="s">
         <v>88</v>
       </c>
@@ -4106,7 +4119,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="218" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A218" s="9" t="s">
         <v>27</v>
       </c>
@@ -4126,7 +4139,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="219" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A219" s="9" t="s">
         <v>24</v>
       </c>
@@ -4144,7 +4157,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="220" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A220" s="9" t="s">
         <v>91</v>
       </c>
@@ -4164,7 +4177,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="221" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A221" s="9" t="s">
         <v>31</v>
       </c>
@@ -4180,11 +4193,14 @@
       <c r="F221" s="9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="222" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G221" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B222" s="13"/>
     </row>
-    <row r="223" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A223" s="7" t="s">
         <v>0</v>
       </c>
@@ -4192,7 +4208,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="224" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A224" s="9" t="s">
         <v>1</v>
       </c>
@@ -4200,7 +4216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A225" s="9" t="s">
         <v>2</v>
       </c>
@@ -4208,7 +4224,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="226" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A226" s="9" t="s">
         <v>3</v>
       </c>
@@ -4216,7 +4232,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A227" s="9" t="s">
         <v>5</v>
       </c>
@@ -4224,7 +4240,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="228" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A228" s="9" t="s">
         <v>7</v>
       </c>
@@ -4232,7 +4248,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="229" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A229" s="9" t="s">
         <v>9</v>
       </c>
@@ -4240,12 +4256,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="230" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A230" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="231" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A231" s="9" t="s">
         <v>11</v>
       </c>
@@ -4268,7 +4284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A232" s="9" t="s">
         <v>90</v>
       </c>
@@ -4288,7 +4304,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="233" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A233" s="12" t="s">
         <v>88</v>
       </c>
@@ -4308,7 +4324,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="234" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A234" s="10" t="s">
         <v>51</v>
       </c>
@@ -4328,7 +4344,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="235" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A235" s="10" t="s">
         <v>96</v>
       </c>
@@ -4346,376 +4362,376 @@
       </c>
       <c r="G235" s="10"/>
     </row>
-    <row r="236" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A236" s="12"/>
       <c r="G236" s="12"/>
     </row>
-    <row r="237" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A237" s="1"/>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B243" s="3"/>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B244" s="3"/>
     </row>
-    <row r="246" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A246" s="1"/>
       <c r="B246" s="2"/>
     </row>
-    <row r="253" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A253" s="1"/>
     </row>
-    <row r="256" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A256" s="4"/>
       <c r="G256" s="4"/>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B260" s="5"/>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B261" s="5"/>
     </row>
-    <row r="262" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A262" s="1"/>
       <c r="B262" s="2"/>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B264" s="6"/>
     </row>
-    <row r="269" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A269" s="1"/>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271" s="6"/>
       <c r="G271" s="6"/>
     </row>
-    <row r="272" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A272" s="4"/>
       <c r="G272" s="4"/>
     </row>
-    <row r="273" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A273" s="4"/>
       <c r="G273" s="4"/>
     </row>
-    <row r="276" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A276" s="1"/>
       <c r="B276" s="2"/>
     </row>
-    <row r="283" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A283" s="1"/>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B289" s="3"/>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B290" s="3"/>
     </row>
-    <row r="292" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A292" s="1"/>
       <c r="B292" s="2"/>
     </row>
-    <row r="299" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A299" s="1"/>
     </row>
-    <row r="302" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A302" s="4"/>
       <c r="G302" s="4"/>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B306" s="5"/>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B307" s="5"/>
     </row>
-    <row r="308" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A308" s="1"/>
       <c r="B308" s="2"/>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B310" s="6"/>
     </row>
-    <row r="315" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A315" s="1"/>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A317" s="6"/>
       <c r="G317" s="6"/>
     </row>
-    <row r="318" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A318" s="4"/>
       <c r="G318" s="4"/>
     </row>
-    <row r="319" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A319" s="4"/>
       <c r="G319" s="4"/>
     </row>
-    <row r="322" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A322" s="1"/>
       <c r="B322" s="2"/>
     </row>
-    <row r="329" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A329" s="1"/>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B335" s="3"/>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B336" s="3"/>
     </row>
-    <row r="338" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A338" s="1"/>
       <c r="B338" s="2"/>
     </row>
-    <row r="345" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A345" s="1"/>
     </row>
-    <row r="348" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A348" s="4"/>
       <c r="G348" s="4"/>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B352" s="5"/>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B353" s="5"/>
     </row>
-    <row r="354" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A354" s="1"/>
       <c r="B354" s="2"/>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B356" s="6"/>
     </row>
-    <row r="361" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A361" s="1"/>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A363" s="6"/>
       <c r="G363" s="6"/>
     </row>
-    <row r="364" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A364" s="4"/>
       <c r="G364" s="4"/>
     </row>
-    <row r="365" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A365" s="4"/>
       <c r="G365" s="4"/>
     </row>
-    <row r="368" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A368" s="1"/>
       <c r="B368" s="2"/>
     </row>
-    <row r="375" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A375" s="1"/>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B381" s="3"/>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B382" s="3"/>
     </row>
-    <row r="384" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A384" s="1"/>
       <c r="B384" s="2"/>
     </row>
-    <row r="391" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A391" s="1"/>
     </row>
-    <row r="394" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A394" s="4"/>
       <c r="G394" s="4"/>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B398" s="5"/>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B399" s="5"/>
     </row>
-    <row r="400" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A400" s="1"/>
       <c r="B400" s="2"/>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B402" s="6"/>
     </row>
-    <row r="407" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A407" s="1"/>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A409" s="6"/>
       <c r="G409" s="6"/>
     </row>
-    <row r="410" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A410" s="4"/>
       <c r="G410" s="4"/>
     </row>
-    <row r="411" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A411" s="4"/>
       <c r="G411" s="4"/>
     </row>
-    <row r="414" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A414" s="1"/>
       <c r="B414" s="2"/>
     </row>
-    <row r="421" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A421" s="1"/>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B427" s="3"/>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B428" s="3"/>
     </row>
-    <row r="430" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A430" s="1"/>
       <c r="B430" s="2"/>
     </row>
-    <row r="437" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A437" s="1"/>
     </row>
-    <row r="440" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A440" s="4"/>
       <c r="G440" s="4"/>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B444" s="5"/>
     </row>
-    <row r="446" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A446" s="1"/>
       <c r="B446" s="2"/>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B448" s="6"/>
     </row>
-    <row r="453" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A453" s="1"/>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A455" s="6"/>
       <c r="G455" s="6"/>
     </row>
-    <row r="456" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A456" s="4"/>
       <c r="G456" s="4"/>
     </row>
-    <row r="457" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A457" s="4"/>
       <c r="G457" s="4"/>
     </row>
-    <row r="459" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A459" s="1"/>
       <c r="B459" s="2"/>
     </row>
-    <row r="466" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A466" s="1"/>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B472" s="3"/>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B473" s="3"/>
     </row>
-    <row r="475" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A475" s="1"/>
       <c r="B475" s="2"/>
     </row>
-    <row r="482" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A482" s="1"/>
     </row>
-    <row r="485" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A485" s="4"/>
       <c r="G485" s="4"/>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B489" s="5"/>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B490" s="5"/>
     </row>
-    <row r="491" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A491" s="1"/>
       <c r="B491" s="2"/>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B493" s="6"/>
     </row>
-    <row r="498" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A498" s="1"/>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A500" s="6"/>
       <c r="G500" s="6"/>
     </row>
-    <row r="501" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A501" s="4"/>
       <c r="G501" s="4"/>
     </row>
-    <row r="502" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A502" s="4"/>
       <c r="G502" s="4"/>
     </row>
-    <row r="505" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A505" s="1"/>
       <c r="B505" s="2"/>
     </row>
-    <row r="512" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A512" s="1"/>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B518" s="3"/>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B519" s="3"/>
     </row>
-    <row r="521" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A521" s="1"/>
       <c r="B521" s="2"/>
     </row>
-    <row r="528" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A528" s="1"/>
     </row>
-    <row r="531" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A531" s="4"/>
       <c r="G531" s="4"/>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B535" s="5"/>
     </row>
-    <row r="537" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A537" s="1"/>
       <c r="B537" s="2"/>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B539" s="6"/>
     </row>
-    <row r="544" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A544" s="1"/>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A546" s="6"/>
       <c r="G546" s="6"/>
     </row>
-    <row r="547" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A547" s="4"/>
       <c r="G547" s="4"/>
     </row>
-    <row r="548" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A548" s="4"/>
       <c r="G548" s="4"/>
     </row>
-    <row r="550" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A550" s="1"/>
       <c r="B550" s="2"/>
     </row>
-    <row r="556" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A556" s="1"/>
     </row>
-    <row r="561" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A561" s="1"/>
       <c r="B561" s="2"/>
     </row>
-    <row r="567" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A567" s="1"/>
     </row>
   </sheetData>

--- a/premise/data/additional_inventories/lci-synfuels-from-FT-from-coal-gasification.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-FT-from-coal-gasification.xlsx
@@ -1,38 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sacchi_r\Documents\GitHub\premise\premise\data\additional_inventories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422DFF92-1A07-684C-BEE8-89916CBDFFDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27252" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="FT fuel - Diesel" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" iterateCount="5"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="98">
   <si>
     <t>Activity</t>
   </si>
@@ -333,7 +320,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -740,21 +727,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K567"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="A221" sqref="A221"/>
+    <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
+      <selection activeCell="F235" sqref="F235"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="83.83203125" customWidth="1"/>
-    <col min="2" max="2" width="32.5" customWidth="1"/>
-    <col min="3" max="3" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="83.77734375" customWidth="1"/>
+    <col min="2" max="2" width="32.44140625" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -762,10 +749,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -773,7 +760,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>7</v>
       </c>
@@ -781,7 +768,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
@@ -789,7 +776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>2</v>
       </c>
@@ -797,7 +784,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>3</v>
       </c>
@@ -805,7 +792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
@@ -813,12 +800,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>11</v>
       </c>
@@ -853,7 +840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>92</v>
       </c>
@@ -882,7 +869,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>81</v>
       </c>
@@ -907,7 +894,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>27</v>
       </c>
@@ -932,7 +919,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>59</v>
       </c>
@@ -957,7 +944,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>61</v>
       </c>
@@ -982,7 +969,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>63</v>
       </c>
@@ -1007,7 +994,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>65</v>
       </c>
@@ -1032,7 +1019,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>67</v>
       </c>
@@ -1057,7 +1044,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>69</v>
       </c>
@@ -1082,7 +1069,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>71</v>
       </c>
@@ -1107,7 +1094,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>74</v>
       </c>
@@ -1132,7 +1119,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>78</v>
       </c>
@@ -1157,12 +1144,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="12"/>
       <c r="B23" s="16"/>
       <c r="G23" s="12"/>
     </row>
-    <row r="24" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>0</v>
       </c>
@@ -1170,7 +1157,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>7</v>
       </c>
@@ -1178,7 +1165,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>1</v>
       </c>
@@ -1186,7 +1173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>2</v>
       </c>
@@ -1194,7 +1181,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>3</v>
       </c>
@@ -1202,7 +1189,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>5</v>
       </c>
@@ -1210,12 +1197,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>11</v>
       </c>
@@ -1250,7 +1237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>93</v>
       </c>
@@ -1279,7 +1266,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>82</v>
       </c>
@@ -1304,7 +1291,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>27</v>
       </c>
@@ -1329,7 +1316,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>59</v>
       </c>
@@ -1354,7 +1341,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>61</v>
       </c>
@@ -1379,7 +1366,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>63</v>
       </c>
@@ -1404,7 +1391,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>65</v>
       </c>
@@ -1429,7 +1416,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
         <v>67</v>
       </c>
@@ -1454,7 +1441,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
         <v>69</v>
       </c>
@@ -1479,7 +1466,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>71</v>
       </c>
@@ -1504,7 +1491,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>74</v>
       </c>
@@ -1529,7 +1516,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>78</v>
       </c>
@@ -1554,12 +1541,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="12"/>
       <c r="B44" s="16"/>
       <c r="G44" s="12"/>
     </row>
-    <row r="45" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>0</v>
       </c>
@@ -1567,7 +1554,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>7</v>
       </c>
@@ -1575,7 +1562,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>1</v>
       </c>
@@ -1583,7 +1570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>2</v>
       </c>
@@ -1591,7 +1578,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>3</v>
       </c>
@@ -1599,7 +1586,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>5</v>
       </c>
@@ -1607,12 +1594,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>11</v>
       </c>
@@ -1647,7 +1634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
         <v>94</v>
       </c>
@@ -1676,7 +1663,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
         <v>83</v>
       </c>
@@ -1701,7 +1688,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>27</v>
       </c>
@@ -1726,7 +1713,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
         <v>59</v>
       </c>
@@ -1751,7 +1738,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
         <v>61</v>
       </c>
@@ -1776,7 +1763,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
         <v>63</v>
       </c>
@@ -1801,7 +1788,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
         <v>65</v>
       </c>
@@ -1826,7 +1813,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
         <v>67</v>
       </c>
@@ -1851,7 +1838,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
         <v>69</v>
       </c>
@@ -1876,7 +1863,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="62" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
         <v>71</v>
       </c>
@@ -1901,7 +1888,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
         <v>74</v>
       </c>
@@ -1926,7 +1913,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="64" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
         <v>78</v>
       </c>
@@ -1951,12 +1938,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="65" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="12"/>
       <c r="B65" s="16"/>
       <c r="G65" s="12"/>
     </row>
-    <row r="66" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
         <v>0</v>
       </c>
@@ -1964,7 +1951,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
         <v>7</v>
       </c>
@@ -1972,7 +1959,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
         <v>1</v>
       </c>
@@ -1980,7 +1967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
         <v>2</v>
       </c>
@@ -1988,7 +1975,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="70" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
         <v>3</v>
       </c>
@@ -1996,7 +1983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
         <v>5</v>
       </c>
@@ -2004,12 +1991,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
         <v>11</v>
       </c>
@@ -2044,7 +2031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
         <v>95</v>
       </c>
@@ -2073,7 +2060,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="10" t="s">
         <v>84</v>
       </c>
@@ -2098,7 +2085,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="76" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
         <v>27</v>
       </c>
@@ -2123,7 +2110,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="77" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="10" t="s">
         <v>59</v>
       </c>
@@ -2148,7 +2135,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="78" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="10" t="s">
         <v>61</v>
       </c>
@@ -2173,7 +2160,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="79" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="10" t="s">
         <v>63</v>
       </c>
@@ -2198,7 +2185,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="80" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="10" t="s">
         <v>65</v>
       </c>
@@ -2223,7 +2210,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="81" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="10" t="s">
         <v>67</v>
       </c>
@@ -2248,7 +2235,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="82" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="10" t="s">
         <v>69</v>
       </c>
@@ -2273,7 +2260,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="83" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="10" t="s">
         <v>71</v>
       </c>
@@ -2298,7 +2285,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="84" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="10" t="s">
         <v>74</v>
       </c>
@@ -2323,7 +2310,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="85" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="10" t="s">
         <v>78</v>
       </c>
@@ -2348,12 +2335,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="86" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="12"/>
       <c r="B86" s="16"/>
       <c r="G86" s="12"/>
     </row>
-    <row r="87" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
         <v>0</v>
       </c>
@@ -2361,7 +2348,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="88" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="9" t="s">
         <v>1</v>
       </c>
@@ -2369,7 +2356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="9" t="s">
         <v>2</v>
       </c>
@@ -2377,7 +2364,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="90" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="9" t="s">
         <v>3</v>
       </c>
@@ -2385,7 +2372,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="9" t="s">
         <v>5</v>
       </c>
@@ -2393,7 +2380,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="9" t="s">
         <v>7</v>
       </c>
@@ -2401,7 +2388,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="9" t="s">
         <v>9</v>
       </c>
@@ -2409,7 +2396,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="94" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="9" t="s">
         <v>37</v>
       </c>
@@ -2417,12 +2404,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="95" spans="1:11" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="9" t="s">
         <v>11</v>
       </c>
@@ -2451,7 +2438,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="10" t="s">
         <v>81</v>
       </c>
@@ -2477,7 +2464,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="98" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="9" t="s">
         <v>91</v>
       </c>
@@ -2500,7 +2487,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="99" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="9" t="s">
         <v>19</v>
       </c>
@@ -2520,7 +2507,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="9" t="s">
         <v>24</v>
       </c>
@@ -2540,7 +2527,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="101" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="10" t="s">
         <v>40</v>
       </c>
@@ -2563,7 +2550,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="102" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="9" t="s">
         <v>27</v>
       </c>
@@ -2586,8 +2573,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="103" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="104" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="104" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>0</v>
       </c>
@@ -2595,7 +2582,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="105" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="9" t="s">
         <v>1</v>
       </c>
@@ -2603,7 +2590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
         <v>2</v>
       </c>
@@ -2611,7 +2598,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="107" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="9" t="s">
         <v>3</v>
       </c>
@@ -2619,7 +2606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="9" t="s">
         <v>5</v>
       </c>
@@ -2627,7 +2614,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="9" t="s">
         <v>7</v>
       </c>
@@ -2635,7 +2622,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="9" t="s">
         <v>9</v>
       </c>
@@ -2643,7 +2630,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="111" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="9" t="s">
         <v>37</v>
       </c>
@@ -2651,12 +2638,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="112" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="9" t="s">
         <v>11</v>
       </c>
@@ -2685,7 +2672,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="10" t="s">
         <v>85</v>
       </c>
@@ -2708,7 +2695,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="115" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="9" t="s">
         <v>91</v>
       </c>
@@ -2731,7 +2718,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="116" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="9" t="s">
         <v>19</v>
       </c>
@@ -2751,7 +2738,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="117" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="9" t="s">
         <v>24</v>
       </c>
@@ -2771,7 +2758,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="118" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="10" t="s">
         <v>40</v>
       </c>
@@ -2794,7 +2781,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="119" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="9" t="s">
         <v>27</v>
       </c>
@@ -2817,8 +2804,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="120" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="121" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="121" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="7" t="s">
         <v>0</v>
       </c>
@@ -2826,7 +2813,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="122" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="9" t="s">
         <v>1</v>
       </c>
@@ -2834,7 +2821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="9" t="s">
         <v>2</v>
       </c>
@@ -2842,7 +2829,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="124" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="9" t="s">
         <v>3</v>
       </c>
@@ -2850,7 +2837,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="9" t="s">
         <v>5</v>
       </c>
@@ -2858,7 +2845,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="9" t="s">
         <v>7</v>
       </c>
@@ -2866,7 +2853,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="9" t="s">
         <v>9</v>
       </c>
@@ -2874,7 +2861,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="128" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="9" t="s">
         <v>37</v>
       </c>
@@ -2882,12 +2869,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="129" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="9" t="s">
         <v>11</v>
       </c>
@@ -2916,7 +2903,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="10" t="s">
         <v>82</v>
       </c>
@@ -2942,7 +2929,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="132" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="9" t="s">
         <v>91</v>
       </c>
@@ -2965,7 +2952,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="133" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="9" t="s">
         <v>19</v>
       </c>
@@ -2985,7 +2972,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="134" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="9" t="s">
         <v>24</v>
       </c>
@@ -3005,7 +2992,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="135" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="10" t="s">
         <v>40</v>
       </c>
@@ -3028,7 +3015,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="136" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="9" t="s">
         <v>27</v>
       </c>
@@ -3051,8 +3038,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="137" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="138" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="138" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" s="7" t="s">
         <v>0</v>
       </c>
@@ -3060,7 +3047,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="139" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="9" t="s">
         <v>1</v>
       </c>
@@ -3068,7 +3055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="9" t="s">
         <v>2</v>
       </c>
@@ -3076,7 +3063,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="141" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="9" t="s">
         <v>3</v>
       </c>
@@ -3084,7 +3071,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="9" t="s">
         <v>5</v>
       </c>
@@ -3092,7 +3079,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="9" t="s">
         <v>7</v>
       </c>
@@ -3100,7 +3087,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A144" s="9" t="s">
         <v>9</v>
       </c>
@@ -3108,7 +3095,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="145" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="9" t="s">
         <v>37</v>
       </c>
@@ -3116,12 +3103,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="146" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="9" t="s">
         <v>11</v>
       </c>
@@ -3150,7 +3137,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="10" t="s">
         <v>86</v>
       </c>
@@ -3176,7 +3163,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="149" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A149" s="9" t="s">
         <v>91</v>
       </c>
@@ -3199,7 +3186,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="150" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="9" t="s">
         <v>19</v>
       </c>
@@ -3219,7 +3206,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="151" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="9" t="s">
         <v>24</v>
       </c>
@@ -3239,7 +3226,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="152" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="10" t="s">
         <v>40</v>
       </c>
@@ -3262,7 +3249,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="153" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" s="9" t="s">
         <v>27</v>
       </c>
@@ -3285,10 +3272,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="154" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B154" s="11"/>
     </row>
-    <row r="155" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" s="7" t="s">
         <v>0</v>
       </c>
@@ -3296,7 +3283,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="156" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="9" t="s">
         <v>1</v>
       </c>
@@ -3304,7 +3291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="9" t="s">
         <v>2</v>
       </c>
@@ -3312,7 +3299,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="158" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A158" s="9" t="s">
         <v>3</v>
       </c>
@@ -3320,7 +3307,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A159" s="9" t="s">
         <v>5</v>
       </c>
@@ -3328,7 +3315,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="160" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="9" t="s">
         <v>7</v>
       </c>
@@ -3336,7 +3323,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="9" t="s">
         <v>9</v>
       </c>
@@ -3344,7 +3331,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="162" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A162" s="9" t="s">
         <v>37</v>
       </c>
@@ -3352,12 +3339,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="163" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A164" s="9" t="s">
         <v>11</v>
       </c>
@@ -3386,7 +3373,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="165" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A165" s="10" t="s">
         <v>83</v>
       </c>
@@ -3412,7 +3399,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="166" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" s="9" t="s">
         <v>91</v>
       </c>
@@ -3435,7 +3422,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="167" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A167" s="9" t="s">
         <v>19</v>
       </c>
@@ -3455,7 +3442,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="168" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168" s="9" t="s">
         <v>24</v>
       </c>
@@ -3475,7 +3462,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="169" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="10" t="s">
         <v>40</v>
       </c>
@@ -3498,7 +3485,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="170" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="9" t="s">
         <v>27</v>
       </c>
@@ -3521,8 +3508,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="171" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="172" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="172" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172" s="7" t="s">
         <v>0</v>
       </c>
@@ -3530,7 +3517,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="173" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A173" s="9" t="s">
         <v>1</v>
       </c>
@@ -3538,7 +3525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A174" s="9" t="s">
         <v>2</v>
       </c>
@@ -3546,7 +3533,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="175" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A175" s="9" t="s">
         <v>3</v>
       </c>
@@ -3554,7 +3541,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A176" s="9" t="s">
         <v>5</v>
       </c>
@@ -3562,7 +3549,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="177" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A177" s="9" t="s">
         <v>7</v>
       </c>
@@ -3570,7 +3557,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A178" s="9" t="s">
         <v>9</v>
       </c>
@@ -3578,7 +3565,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="179" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A179" s="9" t="s">
         <v>37</v>
       </c>
@@ -3586,12 +3573,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="180" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A180" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A181" s="9" t="s">
         <v>11</v>
       </c>
@@ -3620,7 +3607,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="182" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A182" s="10" t="s">
         <v>87</v>
       </c>
@@ -3643,7 +3630,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="183" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A183" s="9" t="s">
         <v>91</v>
       </c>
@@ -3666,7 +3653,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="184" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A184" s="9" t="s">
         <v>19</v>
       </c>
@@ -3686,7 +3673,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="185" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A185" s="9" t="s">
         <v>24</v>
       </c>
@@ -3706,7 +3693,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="186" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A186" s="10" t="s">
         <v>40</v>
       </c>
@@ -3729,7 +3716,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="187" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A187" s="9" t="s">
         <v>27</v>
       </c>
@@ -3752,8 +3739,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="188" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="189" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="189" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189" s="7" t="s">
         <v>0</v>
       </c>
@@ -3761,7 +3748,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="190" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="9" t="s">
         <v>1</v>
       </c>
@@ -3769,7 +3756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A191" s="9" t="s">
         <v>2</v>
       </c>
@@ -3777,7 +3764,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="192" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A192" s="9" t="s">
         <v>3</v>
       </c>
@@ -3785,7 +3772,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A193" s="9" t="s">
         <v>5</v>
       </c>
@@ -3793,7 +3780,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="194" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A194" s="9" t="s">
         <v>7</v>
       </c>
@@ -3801,7 +3788,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="195" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A195" s="9" t="s">
         <v>9</v>
       </c>
@@ -3809,7 +3796,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="196" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A196" s="9" t="s">
         <v>37</v>
       </c>
@@ -3817,12 +3804,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="197" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A197" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="198" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A198" s="9" t="s">
         <v>11</v>
       </c>
@@ -3851,7 +3838,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="199" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A199" s="10" t="s">
         <v>84</v>
       </c>
@@ -3877,7 +3864,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="200" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A200" s="9" t="s">
         <v>91</v>
       </c>
@@ -3900,7 +3887,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="201" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" s="9" t="s">
         <v>19</v>
       </c>
@@ -3920,7 +3907,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="202" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="9" t="s">
         <v>24</v>
       </c>
@@ -3940,7 +3927,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="203" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A203" s="10" t="s">
         <v>40</v>
       </c>
@@ -3963,7 +3950,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="204" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A204" s="9" t="s">
         <v>27</v>
       </c>
@@ -3986,8 +3973,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="205" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="206" spans="1:9" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="206" spans="1:9" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A206" s="7" t="s">
         <v>0</v>
       </c>
@@ -3995,7 +3982,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="207" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A207" s="9" t="s">
         <v>1</v>
       </c>
@@ -4003,7 +3990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A208" s="9" t="s">
         <v>2</v>
       </c>
@@ -4011,7 +3998,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="209" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A209" s="9" t="s">
         <v>3</v>
       </c>
@@ -4019,7 +4006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A210" s="9" t="s">
         <v>5</v>
       </c>
@@ -4027,7 +4014,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="211" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A211" s="9" t="s">
         <v>7</v>
       </c>
@@ -4035,7 +4022,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="212" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A212" s="9" t="s">
         <v>9</v>
       </c>
@@ -4043,7 +4030,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="213" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A213" s="9" t="s">
         <v>37</v>
       </c>
@@ -4051,12 +4038,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="214" spans="1:7" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A214" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="215" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A215" s="9" t="s">
         <v>11</v>
       </c>
@@ -4079,7 +4066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A216" s="9" t="s">
         <v>90</v>
       </c>
@@ -4099,7 +4086,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="217" spans="1:7" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217" s="12" t="s">
         <v>88</v>
       </c>
@@ -4119,7 +4106,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="218" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A218" s="9" t="s">
         <v>27</v>
       </c>
@@ -4139,7 +4126,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="219" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A219" s="9" t="s">
         <v>24</v>
       </c>
@@ -4157,7 +4144,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="220" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A220" s="9" t="s">
         <v>91</v>
       </c>
@@ -4177,7 +4164,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="221" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A221" s="9" t="s">
         <v>31</v>
       </c>
@@ -4193,14 +4180,11 @@
       <c r="F221" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G221" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="222" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B222" s="13"/>
     </row>
-    <row r="223" spans="1:7" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A223" s="7" t="s">
         <v>0</v>
       </c>
@@ -4208,7 +4192,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="224" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A224" s="9" t="s">
         <v>1</v>
       </c>
@@ -4216,7 +4200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A225" s="9" t="s">
         <v>2</v>
       </c>
@@ -4224,7 +4208,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="226" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A226" s="9" t="s">
         <v>3</v>
       </c>
@@ -4232,7 +4216,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A227" s="9" t="s">
         <v>5</v>
       </c>
@@ -4240,7 +4224,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="228" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A228" s="9" t="s">
         <v>7</v>
       </c>
@@ -4248,7 +4232,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="229" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A229" s="9" t="s">
         <v>9</v>
       </c>
@@ -4256,12 +4240,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="230" spans="1:7" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A230" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="231" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A231" s="9" t="s">
         <v>11</v>
       </c>
@@ -4284,7 +4268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A232" s="9" t="s">
         <v>90</v>
       </c>
@@ -4304,7 +4288,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="233" spans="1:7" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A233" s="12" t="s">
         <v>88</v>
       </c>
@@ -4324,7 +4308,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="234" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A234" s="10" t="s">
         <v>51</v>
       </c>
@@ -4344,7 +4328,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="235" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A235" s="10" t="s">
         <v>96</v>
       </c>
@@ -4362,376 +4346,376 @@
       </c>
       <c r="G235" s="10"/>
     </row>
-    <row r="236" spans="1:7" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A236" s="12"/>
       <c r="G236" s="12"/>
     </row>
-    <row r="237" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A237" s="1"/>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B243" s="3"/>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B244" s="3"/>
     </row>
-    <row r="246" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A246" s="1"/>
       <c r="B246" s="2"/>
     </row>
-    <row r="253" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A253" s="1"/>
     </row>
-    <row r="256" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A256" s="4"/>
       <c r="G256" s="4"/>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B260" s="5"/>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B261" s="5"/>
     </row>
-    <row r="262" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A262" s="1"/>
       <c r="B262" s="2"/>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B264" s="6"/>
     </row>
-    <row r="269" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A269" s="1"/>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271" s="6"/>
       <c r="G271" s="6"/>
     </row>
-    <row r="272" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A272" s="4"/>
       <c r="G272" s="4"/>
     </row>
-    <row r="273" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A273" s="4"/>
       <c r="G273" s="4"/>
     </row>
-    <row r="276" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A276" s="1"/>
       <c r="B276" s="2"/>
     </row>
-    <row r="283" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A283" s="1"/>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B289" s="3"/>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B290" s="3"/>
     </row>
-    <row r="292" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A292" s="1"/>
       <c r="B292" s="2"/>
     </row>
-    <row r="299" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A299" s="1"/>
     </row>
-    <row r="302" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A302" s="4"/>
       <c r="G302" s="4"/>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B306" s="5"/>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B307" s="5"/>
     </row>
-    <row r="308" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A308" s="1"/>
       <c r="B308" s="2"/>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B310" s="6"/>
     </row>
-    <row r="315" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A315" s="1"/>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317" s="6"/>
       <c r="G317" s="6"/>
     </row>
-    <row r="318" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A318" s="4"/>
       <c r="G318" s="4"/>
     </row>
-    <row r="319" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A319" s="4"/>
       <c r="G319" s="4"/>
     </row>
-    <row r="322" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A322" s="1"/>
       <c r="B322" s="2"/>
     </row>
-    <row r="329" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A329" s="1"/>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B335" s="3"/>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B336" s="3"/>
     </row>
-    <row r="338" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A338" s="1"/>
       <c r="B338" s="2"/>
     </row>
-    <row r="345" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A345" s="1"/>
     </row>
-    <row r="348" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A348" s="4"/>
       <c r="G348" s="4"/>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B352" s="5"/>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B353" s="5"/>
     </row>
-    <row r="354" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A354" s="1"/>
       <c r="B354" s="2"/>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B356" s="6"/>
     </row>
-    <row r="361" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A361" s="1"/>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A363" s="6"/>
       <c r="G363" s="6"/>
     </row>
-    <row r="364" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A364" s="4"/>
       <c r="G364" s="4"/>
     </row>
-    <row r="365" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A365" s="4"/>
       <c r="G365" s="4"/>
     </row>
-    <row r="368" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A368" s="1"/>
       <c r="B368" s="2"/>
     </row>
-    <row r="375" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A375" s="1"/>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B381" s="3"/>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B382" s="3"/>
     </row>
-    <row r="384" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A384" s="1"/>
       <c r="B384" s="2"/>
     </row>
-    <row r="391" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A391" s="1"/>
     </row>
-    <row r="394" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A394" s="4"/>
       <c r="G394" s="4"/>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B398" s="5"/>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B399" s="5"/>
     </row>
-    <row r="400" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A400" s="1"/>
       <c r="B400" s="2"/>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B402" s="6"/>
     </row>
-    <row r="407" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A407" s="1"/>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A409" s="6"/>
       <c r="G409" s="6"/>
     </row>
-    <row r="410" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A410" s="4"/>
       <c r="G410" s="4"/>
     </row>
-    <row r="411" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A411" s="4"/>
       <c r="G411" s="4"/>
     </row>
-    <row r="414" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A414" s="1"/>
       <c r="B414" s="2"/>
     </row>
-    <row r="421" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A421" s="1"/>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B427" s="3"/>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B428" s="3"/>
     </row>
-    <row r="430" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A430" s="1"/>
       <c r="B430" s="2"/>
     </row>
-    <row r="437" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A437" s="1"/>
     </row>
-    <row r="440" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A440" s="4"/>
       <c r="G440" s="4"/>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B444" s="5"/>
     </row>
-    <row r="446" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A446" s="1"/>
       <c r="B446" s="2"/>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B448" s="6"/>
     </row>
-    <row r="453" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A453" s="1"/>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A455" s="6"/>
       <c r="G455" s="6"/>
     </row>
-    <row r="456" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A456" s="4"/>
       <c r="G456" s="4"/>
     </row>
-    <row r="457" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A457" s="4"/>
       <c r="G457" s="4"/>
     </row>
-    <row r="459" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A459" s="1"/>
       <c r="B459" s="2"/>
     </row>
-    <row r="466" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A466" s="1"/>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B472" s="3"/>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B473" s="3"/>
     </row>
-    <row r="475" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A475" s="1"/>
       <c r="B475" s="2"/>
     </row>
-    <row r="482" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A482" s="1"/>
     </row>
-    <row r="485" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A485" s="4"/>
       <c r="G485" s="4"/>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B489" s="5"/>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B490" s="5"/>
     </row>
-    <row r="491" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A491" s="1"/>
       <c r="B491" s="2"/>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B493" s="6"/>
     </row>
-    <row r="498" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A498" s="1"/>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A500" s="6"/>
       <c r="G500" s="6"/>
     </row>
-    <row r="501" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A501" s="4"/>
       <c r="G501" s="4"/>
     </row>
-    <row r="502" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A502" s="4"/>
       <c r="G502" s="4"/>
     </row>
-    <row r="505" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A505" s="1"/>
       <c r="B505" s="2"/>
     </row>
-    <row r="512" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A512" s="1"/>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B518" s="3"/>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B519" s="3"/>
     </row>
-    <row r="521" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A521" s="1"/>
       <c r="B521" s="2"/>
     </row>
-    <row r="528" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A528" s="1"/>
     </row>
-    <row r="531" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A531" s="4"/>
       <c r="G531" s="4"/>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B535" s="5"/>
     </row>
-    <row r="537" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A537" s="1"/>
       <c r="B537" s="2"/>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B539" s="6"/>
     </row>
-    <row r="544" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A544" s="1"/>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A546" s="6"/>
       <c r="G546" s="6"/>
     </row>
-    <row r="547" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A547" s="4"/>
       <c r="G547" s="4"/>
     </row>
-    <row r="548" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A548" s="4"/>
       <c r="G548" s="4"/>
     </row>
-    <row r="550" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A550" s="1"/>
       <c r="B550" s="2"/>
     </row>
-    <row r="556" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A556" s="1"/>
     </row>
-    <row r="561" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A561" s="1"/>
       <c r="B561" s="2"/>
     </row>
-    <row r="567" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A567" s="1"/>
     </row>
   </sheetData>

--- a/premise/data/additional_inventories/lci-synfuels-from-FT-from-coal-gasification.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-FT-from-coal-gasification.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16455733-DD70-3E41-A1A1-E711C3748294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28C2BEF-C747-5043-BC2E-62146801839B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34200" yWindow="3520" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FT fuel - Diesel" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="99">
   <si>
     <t>Activity</t>
   </si>
@@ -300,9 +300,6 @@
   </si>
   <si>
     <t>Naphtha production, synthetic, Fischer Tropsch process, hydrogen from coal gasification, energy allocation</t>
-  </si>
-  <si>
-    <t>hydrogen production, gaseous, 30 bar, from hard coal gasification and reforming, at coal gasification plant</t>
   </si>
   <si>
     <t>Carbon monoxide, from RWGS, for Fischer Tropsch process, hydrogen from coal gasification</t>
@@ -331,7 +328,13 @@
 Hence, that is 1.57 kg that are not emitted, so a correction is applied here.</t>
   </si>
   <si>
-    <t>hydrogen, gaseous, 30 bar</t>
+    <t>hydrogen production, coal gasification</t>
+  </si>
+  <si>
+    <t>RoW</t>
+  </si>
+  <si>
+    <t>hydrogen, gaseous, low pressure</t>
   </si>
 </sst>
 </file>
@@ -453,9 +456,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -493,7 +496,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -599,7 +602,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -741,7 +744,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -751,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K567"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
+      <selection activeCell="G233" sqref="G233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -778,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -863,7 +866,7 @@
     </row>
     <row r="11" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B11" s="8">
         <v>1</v>
@@ -1117,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1202,7 +1205,7 @@
     </row>
     <row r="32" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B32" s="8">
         <v>1</v>
@@ -1456,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1541,7 +1544,7 @@
     </row>
     <row r="53" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B53" s="8">
         <v>1</v>
@@ -1795,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="67" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1880,7 +1883,7 @@
     </row>
     <row r="74" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B74" s="8">
         <v>1</v>
@@ -2255,7 +2258,7 @@
     </row>
     <row r="98" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B98" s="8">
         <v>0.73</v>
@@ -2486,7 +2489,7 @@
     </row>
     <row r="115" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B115" s="8">
         <v>0.65</v>
@@ -2720,7 +2723,7 @@
     </row>
     <row r="132" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B132" s="8">
         <v>0.98</v>
@@ -2954,7 +2957,7 @@
     </row>
     <row r="149" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B149" s="8">
         <v>2.1</v>
@@ -3190,7 +3193,7 @@
     </row>
     <row r="166" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A166" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B166" s="8">
         <v>2.35</v>
@@ -3421,7 +3424,7 @@
     </row>
     <row r="183" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A183" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B183" s="8">
         <v>2.3199999999999998</v>
@@ -3655,7 +3658,7 @@
     </row>
     <row r="200" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B200" s="8">
         <v>2.2599999999999998</v>
@@ -3768,7 +3771,7 @@
         <v>0</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="207" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -3857,7 +3860,7 @@
     </row>
     <row r="216" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A216" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B216" s="8">
         <v>0.875</v>
@@ -3876,14 +3879,14 @@
       </c>
     </row>
     <row r="217" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A217" s="10" t="s">
-        <v>88</v>
+      <c r="A217" s="14" t="s">
+        <v>96</v>
       </c>
       <c r="B217" s="8">
         <v>0.125</v>
       </c>
       <c r="C217" s="8" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="D217" s="8" t="s">
         <v>6</v>
@@ -3892,7 +3895,7 @@
         <v>18</v>
       </c>
       <c r="G217" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="218" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -3935,7 +3938,7 @@
     </row>
     <row r="220" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A220" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B220" s="8">
         <v>1</v>
@@ -3978,7 +3981,7 @@
         <v>0</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="224" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -4026,7 +4029,7 @@
         <v>9</v>
       </c>
       <c r="B229" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="230" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -4059,7 +4062,7 @@
     </row>
     <row r="232" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A232" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B232" s="8">
         <v>1</v>
@@ -4078,14 +4081,14 @@
       </c>
     </row>
     <row r="233" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A233" s="10" t="s">
-        <v>88</v>
+      <c r="A233" s="14" t="s">
+        <v>96</v>
       </c>
       <c r="B233" s="8">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C233" s="8" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="D233" s="8" t="s">
         <v>6</v>
@@ -4094,7 +4097,7 @@
         <v>18</v>
       </c>
       <c r="G233" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="234" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -4119,7 +4122,7 @@
     </row>
     <row r="235" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A235" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B235" s="9">
         <v>-1.57</v>
